--- a/Generate/Копия Отчет.xlsx
+++ b/Generate/Копия Отчет.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="192">
   <si>
     <t>ИТОГИ</t>
   </si>
@@ -134,484 +134,475 @@
     <t>по продукту</t>
   </si>
   <si>
+    <t>бункер</t>
+  </si>
+  <si>
+    <t>оксигент</t>
+  </si>
+  <si>
+    <t>ENIGMA</t>
+  </si>
+  <si>
+    <t>15C0</t>
+  </si>
+  <si>
+    <t>куб</t>
+  </si>
+  <si>
+    <t>Н/З OX ENIGMA</t>
+  </si>
+  <si>
+    <t>наклейка / маркировка коробочек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LUXE BASE </t>
+  </si>
+  <si>
+    <t>картинки НЕ СОБИРАЕМ, везем на конвейер №23</t>
+  </si>
+  <si>
+    <t>картинки НЕ СОБИРАЕМ, везем на конвейер №21</t>
+  </si>
+  <si>
+    <t>набор</t>
+  </si>
+  <si>
+    <t>крем-краска</t>
+  </si>
+  <si>
+    <t>461B0</t>
+  </si>
+  <si>
+    <t>по флаконам</t>
+  </si>
+  <si>
+    <t>PRINCE BASE</t>
+  </si>
+  <si>
+    <t>картинки НЕ СОБИРАЕМ, везем на конвейер №24</t>
+  </si>
+  <si>
+    <t>ONLY LOOKS</t>
+  </si>
+  <si>
+    <t>Н/З OX LOOKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LUXE CORRECTOR </t>
+  </si>
+  <si>
+    <t>крем-краска (цветная)</t>
+  </si>
+  <si>
+    <t>двухфазный спрей</t>
+  </si>
+  <si>
+    <t>продолжение на следующий день</t>
+  </si>
+  <si>
+    <t>эликсир</t>
+  </si>
+  <si>
+    <t>BEAUTEX</t>
+  </si>
+  <si>
+    <t>Н/З туба BX/3</t>
+  </si>
+  <si>
+    <t>183C0</t>
+  </si>
+  <si>
+    <t>FRISAGE HC</t>
+  </si>
+  <si>
+    <t>PRINCESS ESSEX SOS</t>
+  </si>
+  <si>
+    <t>238C0</t>
+  </si>
+  <si>
+    <t>PRINCESS ESSEX BASE</t>
+  </si>
+  <si>
+    <t>225C0</t>
+  </si>
+  <si>
+    <t>239C0</t>
+  </si>
+  <si>
+    <t>243C0</t>
+  </si>
+  <si>
+    <t>242C0</t>
+  </si>
+  <si>
+    <t>244C0</t>
+  </si>
+  <si>
+    <t>240C0</t>
+  </si>
+  <si>
+    <t>245C0</t>
+  </si>
+  <si>
+    <t>241C0</t>
+  </si>
+  <si>
+    <t>233C0</t>
+  </si>
+  <si>
+    <t>230C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LUXE HIGH FLASH </t>
+  </si>
+  <si>
+    <t>232C0</t>
+  </si>
+  <si>
+    <t>231C0</t>
+  </si>
+  <si>
+    <t>223C0</t>
+  </si>
+  <si>
+    <t>222C0</t>
+  </si>
+  <si>
+    <t>221C0</t>
+  </si>
+  <si>
+    <t>237C0</t>
+  </si>
+  <si>
+    <t>224C0</t>
+  </si>
+  <si>
+    <t>220C0</t>
+  </si>
+  <si>
+    <t>236C0</t>
+  </si>
+  <si>
+    <t>235C0</t>
+  </si>
+  <si>
+    <t>VEDMA</t>
+  </si>
+  <si>
+    <t>VED/Set</t>
+  </si>
+  <si>
+    <t>1030B0</t>
+  </si>
+  <si>
+    <t>Н/З VED/S250</t>
+  </si>
+  <si>
+    <t>989B0</t>
+  </si>
+  <si>
+    <t>по н/з этой партии</t>
+  </si>
+  <si>
+    <t>Н/З VED/M200</t>
+  </si>
+  <si>
+    <t>787B0</t>
+  </si>
+  <si>
+    <t>Н/З VED/E50</t>
+  </si>
+  <si>
+    <t>749B0</t>
+  </si>
+  <si>
+    <t>EN/4</t>
+  </si>
+  <si>
+    <t>185C0</t>
+  </si>
+  <si>
+    <t>Н/З EN/4</t>
+  </si>
+  <si>
+    <t>754A0</t>
+  </si>
+  <si>
+    <t>NDL7/47</t>
+  </si>
+  <si>
+    <t>NDL5/5</t>
+  </si>
+  <si>
+    <t>NDL5/11</t>
+  </si>
+  <si>
+    <t>NDL10/116</t>
+  </si>
+  <si>
+    <t>NDL6/77</t>
+  </si>
+  <si>
+    <t>PE10/76</t>
+  </si>
+  <si>
+    <t>краска пена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA BLONDE </t>
+  </si>
+  <si>
+    <t>Н/З PB10/16</t>
+  </si>
+  <si>
+    <t>226C0</t>
+  </si>
+  <si>
+    <t>227C0</t>
+  </si>
+  <si>
+    <t>Н/З PB10/76</t>
+  </si>
+  <si>
+    <t>228C0</t>
+  </si>
+  <si>
+    <t>шампунь</t>
+  </si>
+  <si>
+    <t>HC HYDROBALANCE</t>
+  </si>
+  <si>
+    <t>НС/HB/S</t>
+  </si>
+  <si>
+    <t>229C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC LUXURY BLOND </t>
+  </si>
+  <si>
+    <t>HC/B/SP</t>
+  </si>
+  <si>
+    <t>172C0</t>
+  </si>
+  <si>
+    <t>по коробочкам</t>
+  </si>
+  <si>
+    <t>масло</t>
+  </si>
+  <si>
+    <t>HC LUXURY VOLUTE</t>
+  </si>
+  <si>
+    <t>HC/LV/O</t>
+  </si>
+  <si>
+    <t>174C0</t>
+  </si>
+  <si>
+    <t>NLC/66</t>
+  </si>
+  <si>
+    <t>NLF/56</t>
+  </si>
+  <si>
+    <t>NLF/44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI YELLOW EFFECT </t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>182C0</t>
+  </si>
+  <si>
+    <t>NLC/G</t>
+  </si>
+  <si>
+    <t>счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
+  </si>
+  <si>
+    <t>лосьон-перманент</t>
+  </si>
+  <si>
+    <t>Н/З FHC/L1</t>
+  </si>
+  <si>
+    <t>234C0</t>
+  </si>
+  <si>
+    <t>Н/КОР PE1/0</t>
+  </si>
+  <si>
+    <t>289C0</t>
+  </si>
+  <si>
+    <t>Н/КОР PC6/0</t>
+  </si>
+  <si>
+    <t>291C0</t>
+  </si>
+  <si>
+    <t>Н/КОР PC7/0</t>
+  </si>
+  <si>
+    <t>292C0</t>
+  </si>
+  <si>
+    <t>Н/КОР PC8/75</t>
+  </si>
+  <si>
+    <t>290C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LUXE SILVER </t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 10/36</t>
+  </si>
+  <si>
+    <t>275C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 5/45</t>
+  </si>
+  <si>
+    <t>273C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 5/76</t>
+  </si>
+  <si>
+    <t>272C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 6/37</t>
+  </si>
+  <si>
+    <t>285C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 7/0</t>
+  </si>
+  <si>
+    <t>274C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 7/4</t>
+  </si>
+  <si>
+    <t>288C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 7/43</t>
+  </si>
+  <si>
+    <t>271C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 8/76</t>
+  </si>
+  <si>
+    <t>287C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 9/34</t>
+  </si>
+  <si>
+    <t>284C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 9/75</t>
+  </si>
+  <si>
+    <t>286C0</t>
+  </si>
+  <si>
+    <t>NEWTONE mini</t>
+  </si>
+  <si>
+    <t>Н/КОР NTB10/76</t>
+  </si>
+  <si>
+    <t>282C0</t>
+  </si>
+  <si>
+    <t>упаковка</t>
+  </si>
+  <si>
     <t>ALPHA HOMME</t>
   </si>
   <si>
-    <t>бункер</t>
-  </si>
-  <si>
-    <t>оксигент</t>
-  </si>
-  <si>
-    <t>ENIGMA</t>
-  </si>
-  <si>
-    <t>15C0</t>
-  </si>
-  <si>
-    <t>куб</t>
-  </si>
-  <si>
-    <t>Н/З OX ENIGMA</t>
-  </si>
-  <si>
-    <t>наклейка / маркировка коробочек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LUXE HIGH BLOND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LUXE BASE </t>
-  </si>
-  <si>
-    <t>картинки НЕ СОБИРАЕМ, везем на конвейер №23</t>
-  </si>
-  <si>
-    <t>картинки НЕ СОБИРАЕМ, везем на конвейер №21</t>
-  </si>
-  <si>
-    <t>набор</t>
-  </si>
-  <si>
-    <t>крем-краска</t>
-  </si>
-  <si>
-    <t>78C0</t>
-  </si>
-  <si>
-    <t>LISSAGE HC</t>
-  </si>
-  <si>
-    <t>75C0</t>
-  </si>
-  <si>
-    <t>WHITE BALANCE</t>
-  </si>
-  <si>
-    <t>68C0</t>
-  </si>
-  <si>
-    <t>EN/1</t>
-  </si>
-  <si>
-    <t>18C0</t>
-  </si>
-  <si>
-    <t>Н/З EN/1</t>
-  </si>
-  <si>
-    <t>660B0</t>
-  </si>
-  <si>
-    <t>461B0</t>
-  </si>
-  <si>
-    <t>WB12.7</t>
-  </si>
-  <si>
-    <t>Н/З WB</t>
-  </si>
-  <si>
-    <t>Н/З WB12.7</t>
-  </si>
-  <si>
-    <t>62C0</t>
-  </si>
-  <si>
-    <t>по гофроящикам</t>
-  </si>
-  <si>
-    <t>219B0</t>
-  </si>
-  <si>
-    <t>краска пена</t>
-  </si>
-  <si>
-    <t>Н/З AH6/0</t>
-  </si>
-  <si>
-    <t>71C0</t>
-  </si>
-  <si>
-    <t>спрей (органическая основа)</t>
-  </si>
-  <si>
-    <t>Н/З LP/100</t>
-  </si>
-  <si>
-    <t>по флаконам</t>
-  </si>
-  <si>
-    <t>NHB 161</t>
-  </si>
-  <si>
-    <t>PRINCE BASE</t>
-  </si>
-  <si>
-    <t>136C0</t>
-  </si>
-  <si>
-    <t>картинки НЕ СОБИРАЕМ, везем на конвейер №24</t>
-  </si>
-  <si>
-    <t>137C0</t>
-  </si>
-  <si>
-    <t>133C0</t>
-  </si>
-  <si>
-    <t>138C0</t>
-  </si>
-  <si>
-    <t>134C0</t>
-  </si>
-  <si>
-    <t>135C0</t>
-  </si>
-  <si>
-    <t>125C0</t>
-  </si>
-  <si>
-    <t>111C0</t>
-  </si>
-  <si>
-    <t>108C0</t>
-  </si>
-  <si>
-    <t>129C0</t>
-  </si>
-  <si>
-    <t>110C0</t>
-  </si>
-  <si>
-    <t>109C0</t>
-  </si>
-  <si>
-    <t>112C0</t>
-  </si>
-  <si>
-    <t>132C0</t>
-  </si>
-  <si>
-    <t>127C0</t>
-  </si>
-  <si>
-    <t>128C0</t>
-  </si>
-  <si>
-    <t>130C0</t>
-  </si>
-  <si>
-    <t>131C0</t>
-  </si>
-  <si>
-    <t>HC БАЗ</t>
-  </si>
-  <si>
-    <t>121C0</t>
-  </si>
-  <si>
-    <t>124C0</t>
-  </si>
-  <si>
-    <t>122C0</t>
-  </si>
-  <si>
-    <t>123C0</t>
-  </si>
-  <si>
-    <t>ONLY LOOKS</t>
-  </si>
-  <si>
-    <t>114C0</t>
-  </si>
-  <si>
-    <t>115C0</t>
-  </si>
-  <si>
-    <t>упаковка</t>
+    <t>AH7/0</t>
+  </si>
+  <si>
+    <t>69C0</t>
   </si>
   <si>
     <t>по ампулам в н/зав</t>
   </si>
   <si>
-    <t>11C0</t>
-  </si>
-  <si>
-    <t>AH5/0</t>
-  </si>
-  <si>
-    <t>12C0</t>
-  </si>
-  <si>
-    <t>NDL5/4</t>
-  </si>
-  <si>
-    <t>NDL7/54</t>
-  </si>
-  <si>
-    <t>NDL7/3</t>
-  </si>
-  <si>
-    <t>NDL10/75</t>
-  </si>
-  <si>
-    <t>NDL7/7</t>
-  </si>
-  <si>
-    <t>Н/З 604</t>
-  </si>
-  <si>
-    <t>113C0</t>
-  </si>
-  <si>
-    <t>Н/З OX LOOKS</t>
-  </si>
-  <si>
-    <t>825A0</t>
-  </si>
-  <si>
-    <t>по окислителю этой партии</t>
-  </si>
-  <si>
-    <t>по тубам н/з</t>
-  </si>
-  <si>
-    <t>229B0</t>
-  </si>
-  <si>
-    <t>бальзам (белый)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC LUXURY REPAIR </t>
-  </si>
-  <si>
-    <t>HC/R/B</t>
-  </si>
-  <si>
-    <t>116C0</t>
-  </si>
-  <si>
-    <t>шампунь (б/цв)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC LUXURY BLOND </t>
-  </si>
-  <si>
-    <t>HC/B/S2</t>
-  </si>
-  <si>
-    <t>117C0</t>
-  </si>
-  <si>
-    <t>счетчик не сбрасывать! (продолжение пред партии), по флаконам</t>
-  </si>
-  <si>
-    <t>спрей (водный)</t>
-  </si>
-  <si>
-    <t>HC/R/MD</t>
-  </si>
-  <si>
-    <t>118C0</t>
-  </si>
-  <si>
-    <t>HC 10/76</t>
-  </si>
-  <si>
-    <t>HC 7/76</t>
-  </si>
-  <si>
-    <t>HC 9/76</t>
-  </si>
-  <si>
-    <t>HC 5/76</t>
-  </si>
-  <si>
-    <t>NHB 117</t>
-  </si>
-  <si>
-    <t>Н/КОР PC6/71</t>
-  </si>
-  <si>
-    <t>197C0</t>
-  </si>
-  <si>
-    <t>Н/КОР PC7/75</t>
-  </si>
-  <si>
-    <t>193C0</t>
-  </si>
-  <si>
-    <t>Н/КОР PC8/3</t>
-  </si>
-  <si>
-    <t>192C0</t>
-  </si>
-  <si>
-    <t>Н/КОР PC8/65</t>
-  </si>
-  <si>
-    <t>196C0</t>
-  </si>
-  <si>
-    <t>Н/КОР PC9/16</t>
-  </si>
-  <si>
-    <t>194C0</t>
-  </si>
-  <si>
-    <t>Н/КОР PC9/76</t>
-  </si>
-  <si>
-    <t>195C0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LUXE CORRECTOR </t>
-  </si>
-  <si>
-    <t>Н/КОР NLC/A</t>
-  </si>
-  <si>
-    <t>179C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NLC/N</t>
-  </si>
-  <si>
-    <t>178C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NLC/22</t>
-  </si>
-  <si>
-    <t>181C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NLC/44</t>
-  </si>
-  <si>
-    <t>180C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL10/18</t>
-  </si>
-  <si>
-    <t>187C0</t>
-  </si>
-  <si>
-    <t>10000 в гофроящики PRINCESS ESSEX по 40 шт, картинки НЕ СОБИРАЕМ, везем на конвейер №21 (НОВАЯ ПРОДУКЦИЯ!)</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL3/11</t>
-  </si>
-  <si>
-    <t>186C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL5/71</t>
-  </si>
-  <si>
-    <t>188C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL6/5</t>
-  </si>
-  <si>
-    <t>165C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL6/74</t>
-  </si>
-  <si>
-    <t>189C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL7/36</t>
-  </si>
-  <si>
-    <t>167C0</t>
-  </si>
-  <si>
-    <t>10000 в гофроящики PRINCESS ESSEX по 40 шт (НОВАЯ ПРОДУКЦИЯ!)</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL7/61</t>
-  </si>
-  <si>
-    <t>190C0</t>
-  </si>
-  <si>
-    <t>10000 в гофроящики PRINCESS ESSEX по 40 шт, картинки НЕ СОБИРАЕМ, везем на конвейер №23 (НОВАЯ ПРОДУКЦИЯ!)</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL9/35</t>
-  </si>
-  <si>
-    <t>166C0</t>
-  </si>
-  <si>
-    <t>Н/КОР NDL9/8</t>
-  </si>
-  <si>
-    <t>191C0</t>
-  </si>
-  <si>
-    <t>МАР/КОР 602</t>
-  </si>
-  <si>
-    <t>169C0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI YELLOW EFFECT </t>
-  </si>
-  <si>
-    <t>МАР/КОР ANT</t>
-  </si>
-  <si>
-    <t>182C0</t>
-  </si>
-  <si>
-    <t>NDL7/77</t>
-  </si>
-  <si>
-    <t>NDL8/75</t>
-  </si>
-  <si>
-    <t>NDL6/1</t>
-  </si>
-  <si>
-    <t>NDL9/17</t>
-  </si>
-  <si>
-    <t>NDL9/36</t>
-  </si>
-  <si>
-    <t>NDL7/71</t>
-  </si>
-  <si>
-    <t>PС10/76</t>
-  </si>
-  <si>
-    <t>PС7/77</t>
-  </si>
-  <si>
-    <t>PС9/65</t>
-  </si>
-  <si>
-    <t>PС1/0</t>
-  </si>
-  <si>
-    <t>PС10/65</t>
-  </si>
-  <si>
-    <t>PС5/0</t>
-  </si>
-  <si>
-    <t>по тубам этой партии</t>
-  </si>
-  <si>
-    <t>7+1</t>
+    <t>70C0</t>
+  </si>
+  <si>
+    <t>NDL8/1</t>
+  </si>
+  <si>
+    <t>NDL7/76</t>
+  </si>
+  <si>
+    <t>NDL6/7</t>
+  </si>
+  <si>
+    <t>P/S161</t>
+  </si>
+  <si>
+    <t>PE9/16</t>
+  </si>
+  <si>
+    <t>PС6/00</t>
+  </si>
+  <si>
+    <t>PС8/76</t>
+  </si>
+  <si>
+    <t>PС4/7</t>
+  </si>
+  <si>
+    <t>по продукту, 80 ШТ СОСТАВЛЯЕМ НА ОТДЕЛЬНЫЙ ПАЛЛЕТ, ОТПРАВЛЯЕМ НА СКЛАД ИЗОЛЯЦИИ ГП КОЛПИНО</t>
+  </si>
+  <si>
+    <t>PС3/0</t>
+  </si>
+  <si>
+    <t>PС5/00</t>
+  </si>
+  <si>
+    <t>по продукту, 1480 ШТ СОСТАВЛЯЕМ НА ОТДЕЛЬНЫЙ ПАЛЛЕТ, ОТПРАВЛЯЕМ НА СКЛАД ИЗОЛЯЦИИ ГП КОЛПИНО</t>
+  </si>
+  <si>
+    <t>PС7/1</t>
+  </si>
+  <si>
+    <t>6+1</t>
+  </si>
+  <si>
+    <t>7+1стажер+2доп</t>
+  </si>
+  <si>
+    <t>по VED/S250</t>
+  </si>
+  <si>
+    <t>по картинкам</t>
+  </si>
+  <si>
+    <t>18/74</t>
   </si>
   <si>
     <t>по ампулам</t>
@@ -844,7 +835,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,12 +881,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +985,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,9 +1198,6 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,11 +1600,11 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,21 +1643,21 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K1" s="44"/>
       <c r="L1" s="3"/>
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="5">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>27</v>
@@ -1732,10 +1714,10 @@
         <v>32</v>
       </c>
       <c r="Q2" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S2" s="32"/>
       <c r="T2" s="56"/>
@@ -1765,10 +1747,10 @@
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
       <c r="Q3" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S3" s="55"/>
       <c r="T3" s="56"/>
@@ -1779,47 +1761,57 @@
       <c r="Y3" s="58"/>
     </row>
     <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
-        <v>39421</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="71">
-        <v>2259</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="74">
-        <v>1</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
+      <c r="A4" s="59">
+        <v>10908</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="60">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="64">
+        <v>35</v>
+      </c>
+      <c r="H4" s="61">
+        <v>35</v>
+      </c>
+      <c r="I4" s="38">
+        <v>2</v>
+      </c>
+      <c r="J4" s="60">
+        <v>4200</v>
+      </c>
+      <c r="K4" s="12">
+        <v>63</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4" s="46">
+        <v>0.36805555555555558</v>
+      </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="75" t="s">
-        <v>62</v>
+      <c r="P4" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q4" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S4" s="55"/>
       <c r="T4" s="56"/>
@@ -1830,41 +1822,59 @@
       <c r="Y4" s="58"/>
     </row>
     <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="67">
-        <v>39463</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="74">
-        <v>1</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="75"/>
+      <c r="A5" s="59">
+        <v>10781</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="60">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="64">
+        <v>42</v>
+      </c>
+      <c r="H5" s="61">
+        <v>42</v>
+      </c>
+      <c r="I5" s="38">
+        <v>2</v>
+      </c>
+      <c r="J5" s="60">
+        <v>2200</v>
+      </c>
+      <c r="K5" s="12">
+        <v>64</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="N5" s="46">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q5" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S5" s="55"/>
       <c r="T5" s="56"/>
@@ -1875,41 +1885,59 @@
       <c r="Y5" s="58"/>
     </row>
     <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="67">
-        <v>39467</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="74">
-        <v>1</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="75"/>
+      <c r="A6" s="59">
+        <v>38325</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="60">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="64">
+        <v>44</v>
+      </c>
+      <c r="H6" s="61">
+        <v>44</v>
+      </c>
+      <c r="I6" s="38">
+        <v>2</v>
+      </c>
+      <c r="J6" s="60">
+        <v>2220</v>
+      </c>
+      <c r="K6" s="12">
+        <v>64</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="46">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N6" s="46">
+        <v>0.4375</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q6" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S6" s="55"/>
       <c r="T6" s="56"/>
@@ -1921,58 +1949,56 @@
     </row>
     <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
-        <v>10779</v>
+        <v>10899</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" s="60">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="G7" s="64">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" s="61">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I7" s="38">
         <v>2</v>
       </c>
       <c r="J7" s="60">
-        <v>4000</v>
+        <v>12300</v>
       </c>
       <c r="K7" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="46">
-        <v>0.33333333333333331</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="N7" s="46">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O7" s="13"/>
       <c r="P7" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S7" s="55"/>
       <c r="T7" s="56"/>
@@ -1984,58 +2010,46 @@
     </row>
     <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
-        <v>10819</v>
+        <v>10808</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" s="60">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="G8" s="64">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H8" s="61">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I8" s="38">
         <v>2</v>
       </c>
-      <c r="J8" s="60">
-        <v>4120</v>
-      </c>
-      <c r="K8" s="12">
-        <v>63</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="N8" s="46">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S8" s="55"/>
       <c r="T8" s="56"/>
@@ -2047,58 +2061,46 @@
     </row>
     <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
-        <v>10812</v>
+        <v>27650</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F9" s="60">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="G9" s="64">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H9" s="61">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I9" s="38">
-        <v>2</v>
-      </c>
-      <c r="J9" s="60">
-        <v>4040</v>
-      </c>
-      <c r="K9" s="12">
-        <v>63</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="46">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="N9" s="46">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S9" s="55"/>
       <c r="T9" s="56"/>
@@ -2110,58 +2112,56 @@
     </row>
     <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
-        <v>13907</v>
+        <v>24501</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F10" s="60">
         <v>8000</v>
       </c>
       <c r="G10" s="64">
+        <v>20</v>
+      </c>
+      <c r="H10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="61">
-        <v>34</v>
-      </c>
       <c r="I10" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="60">
-        <v>8140</v>
+        <v>8070</v>
       </c>
       <c r="K10" s="12">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="46">
-        <v>0.46875</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="N10" s="46">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="O10" s="13"/>
       <c r="P10" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S10" s="55"/>
       <c r="T10" s="56"/>
@@ -2173,31 +2173,31 @@
     </row>
     <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
-        <v>10820</v>
+        <v>24501</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="F11" s="60">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="G11" s="64">
-        <v>46</v>
-      </c>
-      <c r="H11" s="61">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="I11" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="12"/>
@@ -2209,10 +2209,10 @@
         <v>33</v>
       </c>
       <c r="Q11" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S11" s="55"/>
       <c r="T11" s="56"/>
@@ -2224,31 +2224,31 @@
     </row>
     <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
-        <v>7833</v>
+        <v>24505</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" s="60">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="64">
+        <v>20</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="38">
         <v>4</v>
-      </c>
-      <c r="H12" s="61">
-        <v>8</v>
-      </c>
-      <c r="I12" s="38">
-        <v>3</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="12"/>
@@ -2260,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="Q12" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S12" s="55"/>
       <c r="T12" s="56"/>
@@ -2274,45 +2274,59 @@
       <c r="Y12" s="58"/>
     </row>
     <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
-        <v>3379</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="36">
-        <v>604</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="60">
-        <v>5303</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="38">
-        <v>3</v>
-      </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="65"/>
+      <c r="A13" s="67">
+        <v>41744</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="71">
+        <v>4300</v>
+      </c>
+      <c r="G13" s="72">
+        <v>29</v>
+      </c>
+      <c r="H13" s="73">
+        <v>29</v>
+      </c>
+      <c r="I13" s="74">
+        <v>7</v>
+      </c>
+      <c r="J13" s="60">
+        <v>4240</v>
+      </c>
+      <c r="K13" s="12">
+        <v>299</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="75" t="s">
+        <v>47</v>
+      </c>
       <c r="Q13" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S13" s="55"/>
       <c r="T13" s="56"/>
@@ -2323,41 +2337,59 @@
       <c r="Y13" s="58"/>
     </row>
     <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="59">
-        <v>7833</v>
+      <c r="A14" s="59">
+        <v>28545</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>116</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="F14" s="60">
+        <v>5800</v>
+      </c>
+      <c r="G14" s="64">
+        <v>21.15</v>
+      </c>
+      <c r="H14" s="61">
+        <v>21.15</v>
       </c>
       <c r="I14" s="38">
-        <v>3</v>
-      </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="65"/>
+        <v>8</v>
+      </c>
+      <c r="J14" s="60">
+        <v>5580</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N14" s="46">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" s="65" t="s">
+        <v>119</v>
+      </c>
       <c r="Q14" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S14" s="55"/>
       <c r="T14" s="56"/>
@@ -2368,28 +2400,32 @@
       <c r="Y14" s="58"/>
     </row>
     <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="59">
-        <v>7822</v>
+      <c r="A15" s="59">
+        <v>35318</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>24</v>
+        <v>123</v>
+      </c>
+      <c r="F15" s="60">
+        <v>5500</v>
+      </c>
+      <c r="G15" s="64">
+        <v>6</v>
+      </c>
+      <c r="H15" s="61">
+        <v>6</v>
       </c>
       <c r="I15" s="38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J15" s="60"/>
       <c r="K15" s="12"/>
@@ -2398,13 +2434,13 @@
       <c r="N15" s="46"/>
       <c r="O15" s="13"/>
       <c r="P15" s="65" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S15" s="55"/>
       <c r="T15" s="56"/>
@@ -2415,32 +2451,32 @@
       <c r="Y15" s="58"/>
     </row>
     <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
-        <v>3379</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="36">
-        <v>604</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="60">
-        <v>34697</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="38">
-        <v>3</v>
+      <c r="A16" s="67">
+        <v>7822</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="71">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="72">
+        <v>60</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="74">
+        <v>9</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="12"/>
@@ -2448,14 +2484,14 @@
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="65" t="s">
-        <v>114</v>
+      <c r="P16" s="75" t="s">
+        <v>55</v>
       </c>
       <c r="Q16" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="56"/>
@@ -2466,41 +2502,29 @@
       <c r="Y16" s="58"/>
     </row>
     <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="59">
-        <v>7833</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="38">
-        <v>3</v>
-      </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="65"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
       <c r="Q17" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="56"/>
@@ -2511,41 +2535,57 @@
       <c r="Y17" s="58"/>
     </row>
     <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="59">
-        <v>7822</v>
+      <c r="A18" s="59">
+        <v>10734</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>52</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="F18" s="60">
+        <v>8000</v>
+      </c>
+      <c r="G18" s="64">
+        <v>33</v>
+      </c>
+      <c r="H18" s="61">
+        <v>33</v>
       </c>
       <c r="I18" s="38">
-        <v>3</v>
-      </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
+        <v>11</v>
+      </c>
+      <c r="J18" s="60">
+        <v>8160</v>
+      </c>
+      <c r="K18" s="12">
+        <v>64</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="O18" s="13"/>
-      <c r="P18" s="65"/>
+      <c r="P18" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q18" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="56"/>
@@ -2556,59 +2596,47 @@
       <c r="Y18" s="58"/>
     </row>
     <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
-        <v>24497</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="71">
-        <v>8000</v>
-      </c>
-      <c r="G19" s="72">
-        <v>63</v>
-      </c>
-      <c r="H19" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="74">
-        <v>4</v>
-      </c>
-      <c r="J19" s="60">
-        <v>7650</v>
-      </c>
-      <c r="K19" s="12">
-        <v>10</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="46">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="N19" s="46">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="O19" s="13" t="s">
+      <c r="A19" s="59">
+        <v>10755</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="60">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="64">
+        <v>32</v>
+      </c>
+      <c r="H19" s="61">
+        <v>32</v>
+      </c>
+      <c r="I19" s="38">
+        <v>11</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="75" t="s">
-        <v>33</v>
-      </c>
       <c r="Q19" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="56"/>
@@ -2620,58 +2648,46 @@
     </row>
     <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
-        <v>28574</v>
+        <v>10753</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="F20" s="60">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G20" s="64">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H20" s="61">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I20" s="38">
-        <v>7</v>
-      </c>
-      <c r="J20" s="60">
-        <v>11680</v>
-      </c>
-      <c r="K20" s="12">
-        <v>201</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N20" s="46">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>69</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J20" s="60"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="13"/>
       <c r="P20" s="65" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="56"/>
@@ -2683,46 +2699,58 @@
     </row>
     <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
-        <v>28540</v>
+        <v>9118</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F21" s="60">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G21" s="64">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H21" s="61">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I21" s="38">
-        <v>7</v>
-      </c>
-      <c r="J21" s="60"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="J21" s="60">
+        <v>8240</v>
+      </c>
+      <c r="K21" s="12">
+        <v>63</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N21" s="46">
+        <v>0.53125</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="P21" s="65" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S21" s="55"/>
       <c r="T21" s="56"/>
@@ -2734,58 +2762,46 @@
     </row>
     <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59">
-        <v>35107</v>
+        <v>10735</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F22" s="60">
-        <v>1670</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="64">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H22" s="61">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I22" s="38">
-        <v>8</v>
-      </c>
-      <c r="J22" s="60">
-        <v>1372</v>
-      </c>
-      <c r="K22" s="12">
-        <v>74</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N22" s="46">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="O22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="60"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="65" t="s">
-        <v>124</v>
-      </c>
       <c r="Q22" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S22" s="55"/>
       <c r="T22" s="56"/>
@@ -2797,31 +2813,31 @@
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59">
-        <v>28578</v>
+        <v>31578</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="F23" s="60">
-        <v>10000</v>
+        <v>15050</v>
       </c>
       <c r="G23" s="64">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H23" s="61">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I23" s="38">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J23" s="60"/>
       <c r="K23" s="12"/>
@@ -2830,13 +2846,13 @@
       <c r="N23" s="46"/>
       <c r="O23" s="13"/>
       <c r="P23" s="65" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S23" s="55"/>
       <c r="T23" s="56"/>
@@ -2847,32 +2863,32 @@
       <c r="Y23" s="58"/>
     </row>
     <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
-        <v>7825</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="70" t="s">
+      <c r="A24" s="59">
+        <v>35783</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="60">
+        <v>4000</v>
+      </c>
+      <c r="G24" s="64">
+        <v>56</v>
+      </c>
+      <c r="H24" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="71">
-        <v>13800</v>
-      </c>
-      <c r="G24" s="72">
-        <v>60</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="74">
-        <v>9</v>
+      <c r="I24" s="38">
+        <v>15</v>
       </c>
       <c r="J24" s="60"/>
       <c r="K24" s="12"/>
@@ -2880,14 +2896,14 @@
       <c r="M24" s="46"/>
       <c r="N24" s="46"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="75" t="s">
-        <v>69</v>
+      <c r="P24" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q24" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S24" s="55"/>
       <c r="T24" s="56"/>
@@ -2898,29 +2914,47 @@
       <c r="Y24" s="58"/>
     </row>
     <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
+      <c r="A25" s="59">
+        <v>28109</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="60">
+        <v>20000</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="38">
+        <v>16</v>
+      </c>
+      <c r="J25" s="60"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="65" t="s">
+        <v>42</v>
+      </c>
       <c r="Q25" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S25" s="55"/>
       <c r="T25" s="56"/>
@@ -2932,58 +2966,46 @@
     </row>
     <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59">
-        <v>18787</v>
+        <v>36699</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="F26" s="60">
-        <v>2000</v>
-      </c>
-      <c r="G26" s="64">
-        <v>32</v>
-      </c>
-      <c r="H26" s="61">
-        <v>32</v>
+        <v>5000</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I26" s="38">
-        <v>11</v>
-      </c>
-      <c r="J26" s="60">
-        <v>2080</v>
-      </c>
-      <c r="K26" s="12">
-        <v>67</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="46">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="N26" s="46">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J26" s="60"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="13"/>
       <c r="P26" s="65" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S26" s="55"/>
       <c r="T26" s="56"/>
@@ -2995,58 +3017,46 @@
     </row>
     <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59">
-        <v>18788</v>
+        <v>36714</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="F27" s="60">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="64">
-        <v>42</v>
-      </c>
-      <c r="H27" s="61">
-        <v>42</v>
+        <v>5000</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I27" s="38">
-        <v>11</v>
-      </c>
-      <c r="J27" s="60">
-        <v>2140</v>
-      </c>
-      <c r="K27" s="12">
-        <v>67</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="46">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="N27" s="46">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J27" s="60"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="65" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S27" s="55"/>
       <c r="T27" s="56"/>
@@ -3058,58 +3068,46 @@
     </row>
     <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59">
-        <v>38727</v>
+        <v>36756</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="F28" s="60">
-        <v>2000</v>
-      </c>
-      <c r="G28" s="64">
-        <v>44</v>
-      </c>
-      <c r="H28" s="61">
-        <v>44</v>
+        <v>5000</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I28" s="38">
-        <v>11</v>
-      </c>
-      <c r="J28" s="60">
-        <v>2080</v>
-      </c>
-      <c r="K28" s="12">
-        <v>67</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="46">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="N28" s="46">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J28" s="60"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="13"/>
       <c r="P28" s="65" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
@@ -3121,58 +3119,44 @@
     </row>
     <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59">
-        <v>18790</v>
+        <v>24158</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="F29" s="60">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="64">
-        <v>62</v>
+        <v>8000</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I29" s="38">
-        <v>11</v>
-      </c>
-      <c r="J29" s="60">
-        <v>1040</v>
-      </c>
-      <c r="K29" s="12">
-        <v>67</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="46">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="N29" s="46">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="65" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J29" s="60"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S29" s="55"/>
       <c r="T29" s="56"/>
@@ -3184,58 +3168,44 @@
     </row>
     <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59">
-        <v>10750</v>
+        <v>15499</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="F30" s="60">
-        <v>8000</v>
-      </c>
-      <c r="G30" s="64">
-        <v>35</v>
-      </c>
-      <c r="H30" s="61">
-        <v>35</v>
+        <v>2000</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I30" s="38">
-        <v>13</v>
-      </c>
-      <c r="J30" s="60">
-        <v>8220</v>
-      </c>
-      <c r="K30" s="12">
-        <v>63</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="46">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="N30" s="46">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="65" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J30" s="60"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="65"/>
       <c r="Q30" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S30" s="55"/>
       <c r="T30" s="56"/>
@@ -3247,58 +3217,44 @@
     </row>
     <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59">
-        <v>10747</v>
+        <v>15505</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="F31" s="60">
         <v>4000</v>
       </c>
-      <c r="G31" s="64">
-        <v>33</v>
-      </c>
-      <c r="H31" s="61">
-        <v>33</v>
+      <c r="G31" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I31" s="38">
-        <v>13</v>
-      </c>
-      <c r="J31" s="60">
-        <v>4060</v>
-      </c>
-      <c r="K31" s="12">
-        <v>63</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="46">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="N31" s="46">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" s="65" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J31" s="60"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S31" s="55"/>
       <c r="T31" s="56"/>
@@ -3310,22 +3266,22 @@
     </row>
     <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59">
-        <v>36709</v>
+        <v>15507</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F32" s="60">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="64" t="s">
         <v>24</v>
@@ -3343,13 +3299,13 @@
       <c r="N32" s="46"/>
       <c r="O32" s="13"/>
       <c r="P32" s="65" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S32" s="55"/>
       <c r="T32" s="56"/>
@@ -3361,22 +3317,22 @@
     </row>
     <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59">
-        <v>36724</v>
+        <v>15515</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="F33" s="60">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G33" s="64" t="s">
         <v>24</v>
@@ -3393,14 +3349,12 @@
       <c r="M33" s="46"/>
       <c r="N33" s="46"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="65" t="s">
-        <v>73</v>
-      </c>
+      <c r="P33" s="65"/>
       <c r="Q33" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S33" s="55"/>
       <c r="T33" s="56"/>
@@ -3412,22 +3366,22 @@
     </row>
     <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59">
-        <v>36743</v>
+        <v>15517</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F34" s="60">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G34" s="64" t="s">
         <v>24</v>
@@ -3445,13 +3399,13 @@
       <c r="N34" s="46"/>
       <c r="O34" s="13"/>
       <c r="P34" s="65" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S34" s="55"/>
       <c r="T34" s="56"/>
@@ -3463,22 +3417,22 @@
     </row>
     <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59">
-        <v>36751</v>
+        <v>24179</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F35" s="60">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G35" s="64" t="s">
         <v>24</v>
@@ -3495,14 +3449,12 @@
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="65" t="s">
-        <v>73</v>
-      </c>
+      <c r="P35" s="65"/>
       <c r="Q35" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S35" s="55"/>
       <c r="T35" s="56"/>
@@ -3514,22 +3466,22 @@
     </row>
     <row r="36" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59">
-        <v>36763</v>
+        <v>15529</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F36" s="60">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="G36" s="64" t="s">
         <v>24</v>
@@ -3547,13 +3499,13 @@
       <c r="N36" s="46"/>
       <c r="O36" s="13"/>
       <c r="P36" s="65" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S36" s="55"/>
       <c r="T36" s="56"/>
@@ -3565,22 +3517,22 @@
     </row>
     <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59">
-        <v>36775</v>
+        <v>15532</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F37" s="60">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G37" s="64" t="s">
         <v>24</v>
@@ -3598,13 +3550,13 @@
       <c r="N37" s="46"/>
       <c r="O37" s="13"/>
       <c r="P37" s="65" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Q37" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S37" s="55"/>
       <c r="T37" s="56"/>
@@ -3616,22 +3568,22 @@
     </row>
     <row r="38" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59">
-        <v>15347</v>
+        <v>24223</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F38" s="60">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="G38" s="64" t="s">
         <v>24</v>
@@ -3648,12 +3600,14 @@
       <c r="M38" s="46"/>
       <c r="N38" s="46"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="65"/>
+      <c r="P38" s="65" t="s">
+        <v>43</v>
+      </c>
       <c r="Q38" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S38" s="55"/>
       <c r="T38" s="56"/>
@@ -3665,22 +3619,22 @@
     </row>
     <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59">
-        <v>15349</v>
+        <v>38233</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F39" s="60">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="G39" s="64" t="s">
         <v>24</v>
@@ -3699,10 +3653,10 @@
       <c r="O39" s="13"/>
       <c r="P39" s="65"/>
       <c r="Q39" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S39" s="55"/>
       <c r="T39" s="56"/>
@@ -3713,45 +3667,53 @@
       <c r="Y39" s="58"/>
     </row>
     <row r="40" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59">
-        <v>15351</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40" s="60">
-        <v>1000</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="38">
-        <v>16</v>
-      </c>
-      <c r="J40" s="60"/>
+      <c r="A40" s="67">
+        <v>44629</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="71">
+        <v>1250</v>
+      </c>
+      <c r="G40" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="74">
+        <v>18</v>
+      </c>
+      <c r="J40" s="60">
+        <v>1190</v>
+      </c>
       <c r="K40" s="12"/>
       <c r="L40" s="33"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="65"/>
+      <c r="M40" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N40" s="46">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="P40" s="75"/>
       <c r="Q40" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S40" s="55"/>
       <c r="T40" s="56"/>
@@ -3762,32 +3724,28 @@
       <c r="Y40" s="58"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59">
-        <v>15353</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="60">
-        <v>2000</v>
-      </c>
-      <c r="G41" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="38">
-        <v>16</v>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="67">
+        <v>44604</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="74">
+        <v>18</v>
       </c>
       <c r="J41" s="60"/>
       <c r="K41" s="12"/>
@@ -3795,12 +3753,14 @@
       <c r="M41" s="46"/>
       <c r="N41" s="46"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="65"/>
+      <c r="P41" s="75" t="s">
+        <v>90</v>
+      </c>
       <c r="Q41" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S41" s="55"/>
       <c r="T41" s="56"/>
@@ -3810,33 +3770,29 @@
       <c r="X41" s="57"/>
       <c r="Y41" s="58"/>
     </row>
-    <row r="42" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
-        <v>45734</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="60">
-        <v>18000</v>
-      </c>
-      <c r="G42" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="38">
-        <v>16</v>
+    <row r="42" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="67">
+        <v>44603</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="74">
+        <v>18</v>
       </c>
       <c r="J42" s="60"/>
       <c r="K42" s="12"/>
@@ -3844,14 +3800,12 @@
       <c r="M42" s="46"/>
       <c r="N42" s="46"/>
       <c r="O42" s="13"/>
-      <c r="P42" s="76" t="s">
-        <v>156</v>
-      </c>
+      <c r="P42" s="75"/>
       <c r="Q42" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S42" s="55"/>
       <c r="T42" s="56"/>
@@ -3862,32 +3816,28 @@
       <c r="Y42" s="58"/>
     </row>
     <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59">
-        <v>15394</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="60">
-        <v>4000</v>
-      </c>
-      <c r="G43" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="38">
-        <v>16</v>
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="67">
+        <v>44602</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="74">
+        <v>18</v>
       </c>
       <c r="J43" s="60"/>
       <c r="K43" s="12"/>
@@ -3895,14 +3845,12 @@
       <c r="M43" s="46"/>
       <c r="N43" s="46"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="65" t="s">
-        <v>45</v>
-      </c>
+      <c r="P43" s="75"/>
       <c r="Q43" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S43" s="55"/>
       <c r="T43" s="56"/>
@@ -3912,48 +3860,56 @@
       <c r="X43" s="57"/>
       <c r="Y43" s="58"/>
     </row>
-    <row r="44" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="59">
-        <v>45738</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="60">
-        <v>18000</v>
-      </c>
-      <c r="G44" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="38">
-        <v>16</v>
-      </c>
-      <c r="J44" s="60"/>
+    <row r="44" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="67">
+        <v>25041</v>
+      </c>
+      <c r="B44" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="71">
+        <v>7650</v>
+      </c>
+      <c r="G44" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="74">
+        <v>18</v>
+      </c>
+      <c r="J44" s="60">
+        <v>7650</v>
+      </c>
       <c r="K44" s="12"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="76" t="s">
-        <v>156</v>
+      <c r="M44" s="46">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="N44" s="46">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="P44" s="75" t="s">
+        <v>171</v>
       </c>
       <c r="Q44" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S44" s="55"/>
       <c r="T44" s="56"/>
@@ -3964,32 +3920,32 @@
       <c r="Y44" s="58"/>
     </row>
     <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59">
-        <v>15428</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="60">
-        <v>2000</v>
-      </c>
-      <c r="G45" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="38">
-        <v>16</v>
+      <c r="A45" s="67">
+        <v>25041</v>
+      </c>
+      <c r="B45" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="71">
+        <v>7520</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="74">
+        <v>18</v>
       </c>
       <c r="J45" s="60"/>
       <c r="K45" s="12"/>
@@ -3997,12 +3953,14 @@
       <c r="M45" s="46"/>
       <c r="N45" s="46"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="65"/>
+      <c r="P45" s="75" t="s">
+        <v>171</v>
+      </c>
       <c r="Q45" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S45" s="55"/>
       <c r="T45" s="56"/>
@@ -4013,47 +3971,29 @@
       <c r="Y45" s="58"/>
     </row>
     <row r="46" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59">
-        <v>15435</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="60">
-        <v>4000</v>
-      </c>
-      <c r="G46" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="38">
-        <v>16</v>
-      </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="65" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
       <c r="Q46" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S46" s="55"/>
       <c r="T46" s="56"/>
@@ -4065,46 +4005,56 @@
     </row>
     <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59">
-        <v>45736</v>
+        <v>10827</v>
       </c>
       <c r="B47" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="59" t="s">
-        <v>43</v>
-      </c>
       <c r="D47" s="36" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="F47" s="60">
-        <v>18000</v>
-      </c>
-      <c r="G47" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>24</v>
+        <v>20000</v>
+      </c>
+      <c r="G47" s="64">
+        <v>2</v>
+      </c>
+      <c r="H47" s="61">
+        <v>2</v>
       </c>
       <c r="I47" s="38">
-        <v>16</v>
-      </c>
-      <c r="J47" s="60"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="J47" s="60">
+        <v>20040</v>
+      </c>
+      <c r="K47" s="12">
+        <v>64</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N47" s="46">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="O47" s="13"/>
-      <c r="P47" s="76" t="s">
-        <v>167</v>
+      <c r="P47" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q47" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S47" s="55"/>
       <c r="T47" s="56"/>
@@ -4114,33 +4064,33 @@
       <c r="X47" s="57"/>
       <c r="Y47" s="58"/>
     </row>
-    <row r="48" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59">
-        <v>45737</v>
+        <v>10823</v>
       </c>
       <c r="B48" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="59" t="s">
-        <v>43</v>
-      </c>
       <c r="D48" s="36" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="F48" s="60">
-        <v>18000</v>
-      </c>
-      <c r="G48" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>24</v>
+        <v>8000</v>
+      </c>
+      <c r="G48" s="64">
+        <v>5</v>
+      </c>
+      <c r="H48" s="61">
+        <v>5</v>
       </c>
       <c r="I48" s="38">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J48" s="60"/>
       <c r="K48" s="12"/>
@@ -4148,14 +4098,14 @@
       <c r="M48" s="46"/>
       <c r="N48" s="46"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="76" t="s">
-        <v>170</v>
+      <c r="P48" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q48" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S48" s="55"/>
       <c r="T48" s="56"/>
@@ -4167,31 +4117,31 @@
     </row>
     <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="59">
-        <v>27191</v>
+        <v>10804</v>
       </c>
       <c r="B49" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="59" t="s">
-        <v>43</v>
-      </c>
       <c r="D49" s="36" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F49" s="60">
-        <v>2000</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>24</v>
+        <v>12000</v>
+      </c>
+      <c r="G49" s="64">
+        <v>1</v>
+      </c>
+      <c r="H49" s="61">
+        <v>1</v>
       </c>
       <c r="I49" s="38">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J49" s="60"/>
       <c r="K49" s="12"/>
@@ -4199,12 +4149,14 @@
       <c r="M49" s="46"/>
       <c r="N49" s="46"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="65"/>
+      <c r="P49" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q49" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S49" s="55"/>
       <c r="T49" s="56"/>
@@ -4214,48 +4166,58 @@
       <c r="X49" s="57"/>
       <c r="Y49" s="58"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="59">
-        <v>45735</v>
+        <v>27633</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="F50" s="60">
-        <v>18000</v>
-      </c>
-      <c r="G50" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" s="61" t="s">
-        <v>24</v>
+        <v>12000</v>
+      </c>
+      <c r="G50" s="64">
+        <v>11</v>
+      </c>
+      <c r="H50" s="61">
+        <v>11</v>
       </c>
       <c r="I50" s="38">
-        <v>16</v>
-      </c>
-      <c r="J50" s="60"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="J50" s="60">
+        <v>11960</v>
+      </c>
+      <c r="K50" s="12">
+        <v>64</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N50" s="46">
+        <v>0.46180555555555558</v>
+      </c>
       <c r="O50" s="13"/>
-      <c r="P50" s="76" t="s">
-        <v>170</v>
+      <c r="P50" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q50" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S50" s="55"/>
       <c r="T50" s="56"/>
@@ -4267,31 +4229,31 @@
     </row>
     <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59">
-        <v>33275</v>
+        <v>27715</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="F51" s="60">
-        <v>19400</v>
-      </c>
-      <c r="G51" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="61" t="s">
-        <v>24</v>
+        <v>28000</v>
+      </c>
+      <c r="G51" s="64">
+        <v>55</v>
+      </c>
+      <c r="H51" s="61">
+        <v>55</v>
       </c>
       <c r="I51" s="38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J51" s="60"/>
       <c r="K51" s="12"/>
@@ -4299,12 +4261,14 @@
       <c r="M51" s="46"/>
       <c r="N51" s="46"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="65"/>
+      <c r="P51" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q51" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S51" s="55"/>
       <c r="T51" s="56"/>
@@ -4316,44 +4280,56 @@
     </row>
     <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="59">
-        <v>32710</v>
+        <v>37021</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>178</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="F52" s="60">
-        <v>8000</v>
-      </c>
-      <c r="G52" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="61" t="s">
-        <v>24</v>
+        <v>5000</v>
+      </c>
+      <c r="G52" s="64">
+        <v>7</v>
+      </c>
+      <c r="H52" s="61">
+        <v>7</v>
       </c>
       <c r="I52" s="38">
-        <v>16</v>
-      </c>
-      <c r="J52" s="60"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
+        <v>24</v>
+      </c>
+      <c r="J52" s="60">
+        <v>5120</v>
+      </c>
+      <c r="K52" s="12">
+        <v>102</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N52" s="46">
+        <v>0.37847222222222227</v>
+      </c>
       <c r="O52" s="13"/>
-      <c r="P52" s="65"/>
+      <c r="P52" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q52" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S52" s="55"/>
       <c r="T52" s="56"/>
@@ -4364,55 +4340,57 @@
       <c r="Y52" s="58"/>
     </row>
     <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67">
-        <v>24285</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="71">
-        <v>1830</v>
-      </c>
-      <c r="G53" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="74">
-        <v>18</v>
+      <c r="A53" s="59">
+        <v>37064</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="60">
+        <v>5000</v>
+      </c>
+      <c r="G53" s="64">
+        <v>9</v>
+      </c>
+      <c r="H53" s="61">
+        <v>9</v>
+      </c>
+      <c r="I53" s="38">
+        <v>24</v>
       </c>
       <c r="J53" s="60">
-        <v>1800</v>
-      </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="33"/>
+        <v>5000</v>
+      </c>
+      <c r="K53" s="12">
+        <v>103</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="M53" s="46">
-        <v>0.33333333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="N53" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="O53" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="P53" s="75" t="s">
-        <v>100</v>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="O53" s="13"/>
+      <c r="P53" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q53" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S53" s="55"/>
       <c r="T53" s="56"/>
@@ -4422,56 +4400,58 @@
       <c r="X53" s="57"/>
       <c r="Y53" s="58"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67">
-        <v>24285</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="70" t="s">
+    <row r="54" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="59">
+        <v>37006</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="60">
+        <v>5000</v>
+      </c>
+      <c r="G54" s="64">
+        <v>13</v>
+      </c>
+      <c r="H54" s="61">
+        <v>13</v>
+      </c>
+      <c r="I54" s="38">
+        <v>24</v>
+      </c>
+      <c r="J54" s="60">
+        <v>5040</v>
+      </c>
+      <c r="K54" s="12">
         <v>103</v>
       </c>
-      <c r="F54" s="71">
-        <v>5595</v>
-      </c>
-      <c r="G54" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="74">
-        <v>18</v>
-      </c>
-      <c r="J54" s="60">
-        <v>5600</v>
-      </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="33"/>
+      <c r="L54" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="M54" s="46">
-        <v>0.53472222222222221</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="N54" s="46">
-        <v>0.6875</v>
-      </c>
-      <c r="O54" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="P54" s="75" t="s">
-        <v>100</v>
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="O54" s="13"/>
+      <c r="P54" s="65" t="s">
+        <v>181</v>
       </c>
       <c r="Q54" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S54" s="55"/>
       <c r="T54" s="56"/>
@@ -4482,29 +4462,57 @@
       <c r="Y54" s="58"/>
     </row>
     <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
+      <c r="A55" s="59">
+        <v>37001</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="60">
+        <v>5000</v>
+      </c>
+      <c r="G55" s="64">
+        <v>17</v>
+      </c>
+      <c r="H55" s="61">
+        <v>17</v>
+      </c>
+      <c r="I55" s="38">
+        <v>24</v>
+      </c>
+      <c r="J55" s="60">
+        <v>5080</v>
+      </c>
+      <c r="K55" s="12">
+        <v>103</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="46">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="N55" s="46">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O55" s="13"/>
+      <c r="P55" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q55" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S55" s="55"/>
       <c r="T55" s="56"/>
@@ -4514,60 +4522,48 @@
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A56" s="59">
-        <v>10824</v>
+        <v>37009</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F56" s="60">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="G56" s="64">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H56" s="61">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I56" s="38">
-        <v>21</v>
-      </c>
-      <c r="J56" s="60">
-        <v>12000</v>
-      </c>
-      <c r="K56" s="12">
-        <v>64</v>
-      </c>
-      <c r="L56" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N56" s="46">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="O56" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J56" s="60"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="13"/>
       <c r="P56" s="65" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="Q56" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S56" s="55"/>
       <c r="T56" s="56"/>
@@ -4579,58 +4575,46 @@
     </row>
     <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="59">
-        <v>13909</v>
+        <v>37037</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F57" s="60">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G57" s="64">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H57" s="61">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I57" s="38">
-        <v>21</v>
-      </c>
-      <c r="J57" s="60">
-        <v>8040</v>
-      </c>
-      <c r="K57" s="12">
-        <v>63</v>
-      </c>
-      <c r="L57" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" s="46">
-        <v>0.46875</v>
-      </c>
-      <c r="N57" s="46">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="O57" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J57" s="60"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="13"/>
       <c r="P57" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q57" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S57" s="55"/>
       <c r="T57" s="56"/>
@@ -4641,32 +4625,32 @@
       <c r="Y57" s="58"/>
     </row>
     <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59">
-        <v>10792</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="60">
-        <v>20000</v>
-      </c>
-      <c r="G58" s="64">
-        <v>3</v>
-      </c>
-      <c r="H58" s="61">
-        <v>3</v>
-      </c>
-      <c r="I58" s="38">
-        <v>21</v>
+      <c r="A58" s="67">
+        <v>5653</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="71">
+        <v>6000</v>
+      </c>
+      <c r="G58" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="74">
+        <v>42</v>
       </c>
       <c r="J58" s="60"/>
       <c r="K58" s="12"/>
@@ -4674,14 +4658,14 @@
       <c r="M58" s="46"/>
       <c r="N58" s="46"/>
       <c r="O58" s="13"/>
-      <c r="P58" s="65" t="s">
-        <v>33</v>
+      <c r="P58" s="75" t="s">
+        <v>55</v>
       </c>
       <c r="Q58" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S58" s="55"/>
       <c r="T58" s="56"/>
@@ -4692,59 +4676,41 @@
       <c r="Y58" s="58"/>
     </row>
     <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59">
-        <v>10903</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="60">
-        <v>8000</v>
-      </c>
-      <c r="G59" s="64">
-        <v>7</v>
-      </c>
-      <c r="H59" s="61">
-        <v>7</v>
-      </c>
-      <c r="I59" s="38">
-        <v>23</v>
-      </c>
-      <c r="J59" s="60">
-        <v>7960</v>
-      </c>
-      <c r="K59" s="12">
-        <v>63</v>
-      </c>
-      <c r="L59" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N59" s="46">
-        <v>0.40625</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P59" s="65" t="s">
-        <v>33</v>
-      </c>
+      <c r="A59" s="67"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="67">
+        <v>7838</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="74">
+        <v>42</v>
+      </c>
+      <c r="J59" s="60"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="75"/>
       <c r="Q59" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="56"/>
@@ -4755,59 +4721,41 @@
       <c r="Y59" s="58"/>
     </row>
     <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59">
-        <v>10843</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="60">
-        <v>8000</v>
-      </c>
-      <c r="G60" s="64">
-        <v>9</v>
-      </c>
-      <c r="H60" s="61">
-        <v>9</v>
-      </c>
-      <c r="I60" s="38">
-        <v>23</v>
-      </c>
-      <c r="J60" s="60">
-        <v>8080</v>
-      </c>
-      <c r="K60" s="12">
-        <v>64</v>
-      </c>
-      <c r="L60" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M60" s="46">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="N60" s="46">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="O60" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" s="65" t="s">
-        <v>33</v>
-      </c>
+      <c r="A60" s="67"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="67">
+        <v>7825</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="74">
+        <v>42</v>
+      </c>
+      <c r="J60" s="60"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="75"/>
       <c r="Q60" s="6">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S60" s="55"/>
       <c r="T60" s="56"/>
@@ -4818,48 +4766,24 @@
       <c r="Y60" s="58"/>
     </row>
     <row r="61" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59">
-        <v>10907</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="60">
-        <v>24000</v>
-      </c>
-      <c r="G61" s="64">
-        <v>53</v>
-      </c>
-      <c r="H61" s="61">
-        <v>53</v>
-      </c>
-      <c r="I61" s="38">
-        <v>23</v>
-      </c>
+      <c r="A61" s="59"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="38"/>
       <c r="J61" s="60"/>
       <c r="K61" s="12"/>
       <c r="L61" s="33"/>
       <c r="M61" s="46"/>
       <c r="N61" s="46"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R61" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="7"/>
       <c r="S61" s="55"/>
       <c r="T61" s="56"/>
       <c r="U61" s="57"/>
@@ -4868,611 +4792,95 @@
       <c r="X61" s="57"/>
       <c r="Y61" s="58"/>
     </row>
-    <row r="62" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59">
-        <v>36999</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="36" t="s">
+    <row r="62" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="1:25" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="10">
+        <v>40</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="19">
+        <v>40</v>
+      </c>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="7"/>
+    </row>
+    <row r="64" spans="1:25" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="J64" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E62" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G62" s="64">
-        <v>13</v>
-      </c>
-      <c r="H62" s="61">
-        <v>13</v>
-      </c>
-      <c r="I62" s="38">
-        <v>24</v>
-      </c>
-      <c r="J62" s="60">
-        <v>5040</v>
-      </c>
-      <c r="K62" s="12">
-        <v>101</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N62" s="46">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P62" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S62" s="55"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="57"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="57"/>
-      <c r="Y62" s="58"/>
-    </row>
-    <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59">
-        <v>37047</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G63" s="64">
-        <v>17</v>
-      </c>
-      <c r="H63" s="61">
-        <v>17</v>
-      </c>
-      <c r="I63" s="38">
-        <v>24</v>
-      </c>
-      <c r="J63" s="60">
-        <v>5000</v>
-      </c>
-      <c r="K63" s="12">
-        <v>103</v>
-      </c>
-      <c r="L63" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" s="46">
-        <v>0.3923611111111111</v>
-      </c>
-      <c r="N63" s="46">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="O63" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P63" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S63" s="55"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="58"/>
-    </row>
-    <row r="64" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59">
-        <v>37076</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G64" s="64">
-        <v>19</v>
-      </c>
-      <c r="H64" s="61">
-        <v>19</v>
-      </c>
-      <c r="I64" s="38">
-        <v>24</v>
-      </c>
-      <c r="J64" s="60">
-        <v>5000</v>
-      </c>
-      <c r="K64" s="12">
-        <v>103</v>
-      </c>
-      <c r="L64" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64" s="46">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="N64" s="46">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="O64" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P64" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q64" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S64" s="55"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="58"/>
-    </row>
-    <row r="65" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59">
-        <v>36936</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G65" s="64">
-        <v>25</v>
-      </c>
-      <c r="H65" s="61">
-        <v>25</v>
-      </c>
-      <c r="I65" s="38">
-        <v>24</v>
-      </c>
-      <c r="J65" s="60">
-        <v>4960</v>
-      </c>
-      <c r="K65" s="12">
-        <v>103</v>
-      </c>
-      <c r="L65" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M65" s="46">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="N65" s="46">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="O65" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P65" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q65" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S65" s="55"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="57"/>
-      <c r="V65" s="57"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
-      <c r="Y65" s="58"/>
-    </row>
-    <row r="66" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59">
-        <v>36988</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G66" s="64">
-        <v>27</v>
-      </c>
-      <c r="H66" s="61">
-        <v>27</v>
-      </c>
-      <c r="I66" s="38">
-        <v>24</v>
-      </c>
-      <c r="J66" s="60"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q66" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S66" s="55"/>
-      <c r="T66" s="56"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="57"/>
-      <c r="X66" s="57"/>
-      <c r="Y66" s="58"/>
-    </row>
-    <row r="67" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59">
-        <v>37008</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G67" s="64">
-        <v>11</v>
-      </c>
-      <c r="H67" s="61">
-        <v>11</v>
-      </c>
-      <c r="I67" s="38">
-        <v>24</v>
-      </c>
-      <c r="J67" s="60"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q67" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R67" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S67" s="55"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="57"/>
-      <c r="V67" s="57"/>
-      <c r="W67" s="57"/>
-      <c r="X67" s="57"/>
-      <c r="Y67" s="58"/>
-    </row>
-    <row r="68" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="67">
-        <v>5650</v>
-      </c>
-      <c r="B68" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="71">
-        <v>7272</v>
-      </c>
-      <c r="G68" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I68" s="74">
-        <v>42</v>
-      </c>
-      <c r="J68" s="60"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S68" s="55"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="57"/>
-      <c r="V68" s="57"/>
-      <c r="W68" s="57"/>
-      <c r="X68" s="57"/>
-      <c r="Y68" s="58"/>
-    </row>
-    <row r="69" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="67">
-        <v>7835</v>
-      </c>
-      <c r="D69" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I69" s="74">
-        <v>42</v>
-      </c>
-      <c r="J69" s="60"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q69" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S69" s="55"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="57"/>
-      <c r="V69" s="57"/>
-      <c r="W69" s="57"/>
-      <c r="X69" s="57"/>
-      <c r="Y69" s="58"/>
-    </row>
-    <row r="70" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="67">
-        <v>7825</v>
-      </c>
-      <c r="D70" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70" s="74">
-        <v>42</v>
-      </c>
-      <c r="J70" s="60"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="6">
-        <v>43895</v>
-      </c>
-      <c r="R70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S70" s="55"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="57"/>
-      <c r="V70" s="57"/>
-      <c r="W70" s="57"/>
-      <c r="X70" s="57"/>
-      <c r="Y70" s="58"/>
-    </row>
-    <row r="71" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="57"/>
-      <c r="V71" s="57"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="57"/>
-      <c r="Y71" s="58"/>
-    </row>
-    <row r="72" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="31"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="7"/>
-    </row>
-    <row r="73" spans="1:25" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="7"/>
-    </row>
-    <row r="74" spans="1:25" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" s="18"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="7"/>
-    </row>
-    <row r="75" spans="1:25" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="7"/>
+    </row>
+    <row r="65" spans="11:13" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yF2XTIB77xjilx9fxmhvg/UarXvaAqdnTLB4EqinTgQtqZycakbMoteAUK/tYbDD+Bvx0H0/LhZkYXJfgbL05g==" saltValue="pa9S6vhuatUTgCvBWD8jTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z2yVTd1N3LLW4G7tAIx3RIXLbJb1r0dD3iu7AhrwWNIA+aGDvuV6LIMVS7A49RZQmAlFPhMWw9NqmviLV/nEAA==" saltValue="pghfh5ztVssd6Qzq2itfyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="R1:R1048576" name="Диапазон2"/>
     <protectedRange sqref="J1:O1048576" name="Диапазон1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="A75:X75">
+  <conditionalFormatting sqref="A65:X65">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Generate/Копия Отчет.xlsx
+++ b/Generate/Копия Отчет.xlsx
@@ -16,15 +16,15 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Алексей Э. Иоселевский - Личное представление" guid="{53B2E19A-2C0B-470C-A558-EBB9F81DA030}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="655" activeSheetId="1"/>
+    <customWorkbookView name="lab6 - Личное представление" guid="{B45CD6EE-4206-4B18-9590-E8195270FE73}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
+    <customWorkbookView name="Ирина В. Быстрова - Личное представление" guid="{B04CB7C8-9E32-40B5-A195-EF6C1654EF10}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="779" activeSheetId="1"/>
+    <customWorkbookView name="Денис Ю. Кудрявцев - Личное представление" guid="{4F59D87F-ED20-4040-A064-D4D0AC7EFBB7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="759" activeSheetId="1"/>
+    <customWorkbookView name="Дмитрий И. Симонов - Личное представление" guid="{9F33737B-8279-48D0-A2A2-C2035405B4C1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="671" activeSheetId="1"/>
+    <customWorkbookView name="o.medvedchikova - Личное представление" guid="{07D7518C-E785-4DCA-B6EC-20A0E5B1C86B}" mergeInterval="0" personalView="1" maximized="1" yWindow="-4" windowWidth="1233" windowHeight="690" activeSheetId="1"/>
+    <customWorkbookView name="lab4 - Личное представление" guid="{2B26FDEF-B69D-46CF-BD86-BF5016A1C991}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="1"/>
+    <customWorkbookView name="Екатерина Н. Ботвинкина - Личное представление" guid="{EFBE0C0D-1D2D-4224-935A-F324D15FB403}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
     <customWorkbookView name="proizvod - Личное представление" guid="{F88D1252-4D89-4F80-8D39-F77DF7673B9C}" autoUpdate="1" mergeInterval="5" personalView="1" maximized="1" windowWidth="1596" windowHeight="655" activeSheetId="1"/>
-    <customWorkbookView name="Екатерина Н. Ботвинкина - Личное представление" guid="{EFBE0C0D-1D2D-4224-935A-F324D15FB403}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
-    <customWorkbookView name="lab4 - Личное представление" guid="{2B26FDEF-B69D-46CF-BD86-BF5016A1C991}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="855" activeSheetId="1"/>
-    <customWorkbookView name="o.medvedchikova - Личное представление" guid="{07D7518C-E785-4DCA-B6EC-20A0E5B1C86B}" mergeInterval="0" personalView="1" maximized="1" yWindow="-4" windowWidth="1233" windowHeight="690" activeSheetId="1"/>
-    <customWorkbookView name="Дмитрий И. Симонов - Личное представление" guid="{9F33737B-8279-48D0-A2A2-C2035405B4C1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="671" activeSheetId="1"/>
-    <customWorkbookView name="Денис Ю. Кудрявцев - Личное представление" guid="{4F59D87F-ED20-4040-A064-D4D0AC7EFBB7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="759" activeSheetId="1"/>
-    <customWorkbookView name="Ирина В. Быстрова - Личное представление" guid="{B04CB7C8-9E32-40B5-A195-EF6C1654EF10}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="779" activeSheetId="1"/>
-    <customWorkbookView name="lab6 - Личное представление" guid="{B45CD6EE-4206-4B18-9590-E8195270FE73}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="675" activeSheetId="1"/>
-    <customWorkbookView name="Алексей Э. Иоселевский - Личное представление" guid="{53B2E19A-2C0B-470C-A558-EBB9F81DA030}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="655" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1604,7 +1604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1650,7 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="5">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="6">

--- a/Generate/Копия Отчет.xlsx
+++ b/Generate/Копия Отчет.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="175">
   <si>
     <t>ИТОГИ</t>
   </si>
@@ -134,9 +134,6 @@
     <t>по продукту</t>
   </si>
   <si>
-    <t>бункер</t>
-  </si>
-  <si>
     <t>оксигент</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>461B0</t>
   </si>
   <si>
-    <t>по флаконам</t>
-  </si>
-  <si>
     <t>PRINCE BASE</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Н/З OX LOOKS</t>
   </si>
   <si>
-    <t xml:space="preserve">DE LUXE CORRECTOR </t>
-  </si>
-  <si>
     <t>крем-краска (цветная)</t>
   </si>
   <si>
@@ -200,412 +191,370 @@
     <t>продолжение на следующий день</t>
   </si>
   <si>
-    <t>эликсир</t>
-  </si>
-  <si>
-    <t>BEAUTEX</t>
-  </si>
-  <si>
-    <t>Н/З туба BX/3</t>
-  </si>
-  <si>
-    <t>183C0</t>
-  </si>
-  <si>
     <t>FRISAGE HC</t>
   </si>
   <si>
-    <t>PRINCESS ESSEX SOS</t>
-  </si>
-  <si>
-    <t>238C0</t>
-  </si>
-  <si>
     <t>PRINCESS ESSEX BASE</t>
   </si>
   <si>
-    <t>225C0</t>
-  </si>
-  <si>
-    <t>239C0</t>
-  </si>
-  <si>
-    <t>243C0</t>
-  </si>
-  <si>
-    <t>242C0</t>
-  </si>
-  <si>
-    <t>244C0</t>
-  </si>
-  <si>
-    <t>240C0</t>
-  </si>
-  <si>
-    <t>245C0</t>
-  </si>
-  <si>
-    <t>241C0</t>
-  </si>
-  <si>
-    <t>233C0</t>
-  </si>
-  <si>
-    <t>230C0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LUXE HIGH FLASH </t>
-  </si>
-  <si>
-    <t>232C0</t>
-  </si>
-  <si>
-    <t>231C0</t>
-  </si>
-  <si>
-    <t>223C0</t>
-  </si>
-  <si>
-    <t>222C0</t>
-  </si>
-  <si>
-    <t>221C0</t>
-  </si>
-  <si>
-    <t>237C0</t>
-  </si>
-  <si>
-    <t>224C0</t>
-  </si>
-  <si>
-    <t>220C0</t>
-  </si>
-  <si>
-    <t>236C0</t>
-  </si>
-  <si>
-    <t>235C0</t>
-  </si>
-  <si>
     <t>VEDMA</t>
   </si>
   <si>
-    <t>VED/Set</t>
-  </si>
-  <si>
-    <t>1030B0</t>
-  </si>
-  <si>
     <t>Н/З VED/S250</t>
   </si>
   <si>
-    <t>989B0</t>
-  </si>
-  <si>
-    <t>по н/з этой партии</t>
-  </si>
-  <si>
-    <t>Н/З VED/M200</t>
-  </si>
-  <si>
-    <t>787B0</t>
-  </si>
-  <si>
-    <t>Н/З VED/E50</t>
-  </si>
-  <si>
-    <t>749B0</t>
-  </si>
-  <si>
     <t>EN/4</t>
   </si>
   <si>
-    <t>185C0</t>
-  </si>
-  <si>
     <t>Н/З EN/4</t>
   </si>
   <si>
-    <t>754A0</t>
-  </si>
-  <si>
-    <t>NDL7/47</t>
-  </si>
-  <si>
-    <t>NDL5/5</t>
-  </si>
-  <si>
-    <t>NDL5/11</t>
-  </si>
-  <si>
-    <t>NDL10/116</t>
-  </si>
-  <si>
-    <t>NDL6/77</t>
-  </si>
-  <si>
-    <t>PE10/76</t>
-  </si>
-  <si>
-    <t>краска пена</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRIMA BLONDE </t>
   </si>
   <si>
-    <t>Н/З PB10/16</t>
-  </si>
-  <si>
     <t>226C0</t>
   </si>
   <si>
     <t>227C0</t>
   </si>
   <si>
-    <t>Н/З PB10/76</t>
-  </si>
-  <si>
-    <t>228C0</t>
-  </si>
-  <si>
-    <t>шампунь</t>
-  </si>
-  <si>
-    <t>HC HYDROBALANCE</t>
-  </si>
-  <si>
-    <t>НС/HB/S</t>
-  </si>
-  <si>
-    <t>229C0</t>
-  </si>
-  <si>
     <t xml:space="preserve">HC LUXURY BLOND </t>
   </si>
   <si>
-    <t>HC/B/SP</t>
-  </si>
-  <si>
-    <t>172C0</t>
-  </si>
-  <si>
-    <t>по коробочкам</t>
-  </si>
-  <si>
-    <t>масло</t>
-  </si>
-  <si>
-    <t>HC LUXURY VOLUTE</t>
-  </si>
-  <si>
-    <t>HC/LV/O</t>
-  </si>
-  <si>
-    <t>174C0</t>
-  </si>
-  <si>
-    <t>NLC/66</t>
-  </si>
-  <si>
-    <t>NLF/56</t>
-  </si>
-  <si>
-    <t>NLF/44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI YELLOW EFFECT </t>
-  </si>
-  <si>
-    <t>ANT</t>
-  </si>
-  <si>
-    <t>182C0</t>
-  </si>
-  <si>
-    <t>NLC/G</t>
-  </si>
-  <si>
-    <t>счетчик не сбрасывать! (продолжение пред партии), по продукту</t>
-  </si>
-  <si>
     <t>лосьон-перманент</t>
   </si>
   <si>
     <t>Н/З FHC/L1</t>
   </si>
   <si>
-    <t>234C0</t>
-  </si>
-  <si>
-    <t>Н/КОР PE1/0</t>
-  </si>
-  <si>
     <t>289C0</t>
   </si>
   <si>
-    <t>Н/КОР PC6/0</t>
-  </si>
-  <si>
     <t>291C0</t>
   </si>
   <si>
-    <t>Н/КОР PC7/0</t>
-  </si>
-  <si>
     <t>292C0</t>
   </si>
   <si>
-    <t>Н/КОР PC8/75</t>
-  </si>
-  <si>
     <t>290C0</t>
   </si>
   <si>
     <t xml:space="preserve">DE LUXE SILVER </t>
   </si>
   <si>
-    <t>Н/КОР DLS 10/36</t>
-  </si>
-  <si>
     <t>275C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 5/45</t>
-  </si>
-  <si>
     <t>273C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 5/76</t>
-  </si>
-  <si>
     <t>272C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 6/37</t>
-  </si>
-  <si>
     <t>285C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 7/0</t>
-  </si>
-  <si>
     <t>274C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 7/4</t>
-  </si>
-  <si>
     <t>288C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 7/43</t>
-  </si>
-  <si>
     <t>271C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 8/76</t>
-  </si>
-  <si>
     <t>287C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 9/34</t>
-  </si>
-  <si>
     <t>284C0</t>
   </si>
   <si>
-    <t>Н/КОР DLS 9/75</t>
-  </si>
-  <si>
     <t>286C0</t>
   </si>
   <si>
     <t>NEWTONE mini</t>
   </si>
   <si>
-    <t>Н/КОР NTB10/76</t>
-  </si>
-  <si>
     <t>282C0</t>
   </si>
   <si>
     <t>упаковка</t>
   </si>
   <si>
-    <t>ALPHA HOMME</t>
-  </si>
-  <si>
-    <t>AH7/0</t>
-  </si>
-  <si>
-    <t>69C0</t>
-  </si>
-  <si>
     <t>по ампулам в н/зав</t>
   </si>
   <si>
-    <t>70C0</t>
-  </si>
-  <si>
-    <t>NDL8/1</t>
-  </si>
-  <si>
-    <t>NDL7/76</t>
-  </si>
-  <si>
-    <t>NDL6/7</t>
-  </si>
-  <si>
-    <t>P/S161</t>
-  </si>
-  <si>
-    <t>PE9/16</t>
-  </si>
-  <si>
-    <t>PС6/00</t>
-  </si>
-  <si>
-    <t>PС8/76</t>
-  </si>
-  <si>
-    <t>PС4/7</t>
-  </si>
-  <si>
-    <t>по продукту, 80 ШТ СОСТАВЛЯЕМ НА ОТДЕЛЬНЫЙ ПАЛЛЕТ, ОТПРАВЛЯЕМ НА СКЛАД ИЗОЛЯЦИИ ГП КОЛПИНО</t>
-  </si>
-  <si>
-    <t>PС3/0</t>
-  </si>
-  <si>
-    <t>PС5/00</t>
-  </si>
-  <si>
-    <t>по продукту, 1480 ШТ СОСТАВЛЯЕМ НА ОТДЕЛЬНЫЙ ПАЛЛЕТ, ОТПРАВЛЯЕМ НА СКЛАД ИЗОЛЯЦИИ ГП КОЛПИНО</t>
-  </si>
-  <si>
-    <t>PС7/1</t>
-  </si>
-  <si>
-    <t>6+1</t>
-  </si>
-  <si>
-    <t>7+1стажер+2доп</t>
-  </si>
-  <si>
-    <t>по VED/S250</t>
-  </si>
-  <si>
     <t>по картинкам</t>
   </si>
   <si>
-    <t>18/74</t>
-  </si>
-  <si>
-    <t>по ампулам</t>
+    <t>LAB HC</t>
+  </si>
+  <si>
+    <t>LAB/B</t>
+  </si>
+  <si>
+    <t>268C0</t>
+  </si>
+  <si>
+    <t>DLS 7/43</t>
+  </si>
+  <si>
+    <t>DLS 5/76</t>
+  </si>
+  <si>
+    <t>DLS 5/45</t>
+  </si>
+  <si>
+    <t>DLS 7/0</t>
+  </si>
+  <si>
+    <t>DLS 10/36</t>
+  </si>
+  <si>
+    <t>сыворотка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я ЦВЕТ </t>
+  </si>
+  <si>
+    <t>Н/З Я ГЛАДКОСТЬ</t>
+  </si>
+  <si>
+    <t>276C0</t>
+  </si>
+  <si>
+    <t>шампунь (белый)</t>
+  </si>
+  <si>
+    <t>HC LUXURY VOLUME</t>
+  </si>
+  <si>
+    <t>HC/V/S</t>
+  </si>
+  <si>
+    <t>277C0</t>
+  </si>
+  <si>
+    <t>по колпачкам</t>
+  </si>
+  <si>
+    <t>278C0</t>
+  </si>
+  <si>
+    <t>по плану</t>
+  </si>
+  <si>
+    <t>VED/S250</t>
+  </si>
+  <si>
+    <t>HC LUXURY COLOR</t>
+  </si>
+  <si>
+    <t>HC/С/SP</t>
+  </si>
+  <si>
+    <t>279C0</t>
+  </si>
+  <si>
+    <t>спрей (органическая основа)</t>
+  </si>
+  <si>
+    <t>HC/B/MD</t>
+  </si>
+  <si>
+    <t>281C0</t>
+  </si>
+  <si>
+    <t>177C0</t>
+  </si>
+  <si>
+    <t>маска в тубе (цветная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWTONE 60мл </t>
+  </si>
+  <si>
+    <t>NTB10/76</t>
+  </si>
+  <si>
+    <t>283C0</t>
+  </si>
+  <si>
+    <t>Н/КОР PE10/16</t>
+  </si>
+  <si>
+    <t>340C0</t>
+  </si>
+  <si>
+    <t>PRINCE CHROME</t>
+  </si>
+  <si>
+    <t>Н/КОР PC6/11</t>
+  </si>
+  <si>
+    <t>341C0</t>
+  </si>
+  <si>
+    <t>Н/КОР PC7/16</t>
+  </si>
+  <si>
+    <t>343C0</t>
+  </si>
+  <si>
+    <t>Н/КОР PC9/61</t>
+  </si>
+  <si>
+    <t>342C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LUXE HIGH BLOND </t>
+  </si>
+  <si>
+    <t>Н/КОР NHB 101</t>
+  </si>
+  <si>
+    <t>331C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 5/75</t>
+  </si>
+  <si>
+    <t>320C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 6/76</t>
+  </si>
+  <si>
+    <t>321C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 7/45</t>
+  </si>
+  <si>
+    <t>319C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 7/47</t>
+  </si>
+  <si>
+    <t>322C0</t>
+  </si>
+  <si>
+    <t>Н/КОР DLS 9/36</t>
+  </si>
+  <si>
+    <t>323C0</t>
+  </si>
+  <si>
+    <t>Н/КОР NDL10/0</t>
+  </si>
+  <si>
+    <t>339C0</t>
+  </si>
+  <si>
+    <t>Н/КОР NDL4/0</t>
+  </si>
+  <si>
+    <t>338C0</t>
+  </si>
+  <si>
+    <t>Н/КОР NDL6/3</t>
+  </si>
+  <si>
+    <t>336C0</t>
+  </si>
+  <si>
+    <t>Н/КОР NDL6/44</t>
+  </si>
+  <si>
+    <t>335C0</t>
+  </si>
+  <si>
+    <t>Н/КОР NDL8/34</t>
+  </si>
+  <si>
+    <t>337C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENSE DE LUXE BASE </t>
+  </si>
+  <si>
+    <t>Н/КОР SE10/76</t>
+  </si>
+  <si>
+    <t>330C0</t>
+  </si>
+  <si>
+    <t>VINTAGE HC</t>
+  </si>
+  <si>
+    <t>Н/КОР VHC6/37</t>
+  </si>
+  <si>
+    <t>326C0</t>
+  </si>
+  <si>
+    <t>Н/КОР VHC6/71</t>
+  </si>
+  <si>
+    <t>329C0</t>
+  </si>
+  <si>
+    <t>Н/КОР VHC7/76</t>
+  </si>
+  <si>
+    <t>328C0</t>
+  </si>
+  <si>
+    <t>Н/КОР VHC9/76</t>
+  </si>
+  <si>
+    <t>327C0</t>
+  </si>
+  <si>
+    <t>Н/КОР NTB10/6</t>
+  </si>
+  <si>
+    <t>332C0</t>
+  </si>
+  <si>
+    <t>PB10/16</t>
+  </si>
+  <si>
+    <t>DLS 9/34</t>
+  </si>
+  <si>
+    <t>DLS 9/75</t>
+  </si>
+  <si>
+    <t>DLS 6/37</t>
+  </si>
+  <si>
+    <t>DLS 8/76</t>
+  </si>
+  <si>
+    <t>DLS 7/4</t>
+  </si>
+  <si>
+    <t>PE1/0</t>
+  </si>
+  <si>
+    <t>PС8/75</t>
+  </si>
+  <si>
+    <t>PС6/0</t>
+  </si>
+  <si>
+    <t>PС7/0</t>
+  </si>
+  <si>
+    <t>293C0</t>
+  </si>
+  <si>
+    <t>469B0</t>
+  </si>
+  <si>
+    <t>7+1</t>
   </si>
 </sst>
 </file>
@@ -1600,11 +1549,11 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,21 +1592,21 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K1" s="44"/>
       <c r="L1" s="3"/>
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
       <c r="O1" s="5">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>27</v>
@@ -1714,10 +1663,10 @@
         <v>32</v>
       </c>
       <c r="Q2" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S2" s="32"/>
       <c r="T2" s="56"/>
@@ -1747,10 +1696,10 @@
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
       <c r="Q3" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S3" s="55"/>
       <c r="T3" s="56"/>
@@ -1762,56 +1711,46 @@
     </row>
     <row r="4" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59">
-        <v>10908</v>
+        <v>41949</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F4" s="60">
-        <v>4000</v>
-      </c>
-      <c r="G4" s="64">
-        <v>35</v>
-      </c>
-      <c r="H4" s="61">
-        <v>35</v>
+        <v>3000</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="38">
-        <v>2</v>
-      </c>
-      <c r="J4" s="60">
-        <v>4200</v>
-      </c>
-      <c r="K4" s="12">
-        <v>63</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N4" s="46">
-        <v>0.36805555555555558</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" s="60"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
       <c r="O4" s="13"/>
       <c r="P4" s="65" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S4" s="55"/>
       <c r="T4" s="56"/>
@@ -1823,58 +1762,58 @@
     </row>
     <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
-        <v>10781</v>
+        <v>24181</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" s="60">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G5" s="64">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" s="61">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" s="38">
         <v>2</v>
       </c>
       <c r="J5" s="60">
-        <v>2200</v>
+        <v>6220</v>
       </c>
       <c r="K5" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="46">
-        <v>0.38194444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N5" s="46">
-        <v>0.39930555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="P5" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S5" s="55"/>
       <c r="T5" s="56"/>
@@ -1886,58 +1825,46 @@
     </row>
     <row r="6" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59">
-        <v>38325</v>
+        <v>6128</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F6" s="60">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G6" s="64">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H6" s="61">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I6" s="38">
         <v>2</v>
       </c>
-      <c r="J6" s="60">
-        <v>2220</v>
-      </c>
-      <c r="K6" s="12">
-        <v>64</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="46">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="N6" s="46">
-        <v>0.4375</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S6" s="55"/>
       <c r="T6" s="56"/>
@@ -1949,56 +1876,46 @@
     </row>
     <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
-        <v>10899</v>
+        <v>6109</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F7" s="60">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="G7" s="64">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H7" s="61">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I7" s="38">
         <v>2</v>
       </c>
-      <c r="J7" s="60">
-        <v>12300</v>
-      </c>
-      <c r="K7" s="12">
-        <v>63</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="46">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="N7" s="46">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
       <c r="O7" s="13"/>
       <c r="P7" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S7" s="55"/>
       <c r="T7" s="56"/>
@@ -2010,28 +1927,28 @@
     </row>
     <row r="8" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
-        <v>10808</v>
+        <v>6090</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F8" s="60">
         <v>20000</v>
       </c>
       <c r="G8" s="64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="38">
         <v>2</v>
@@ -2046,10 +1963,10 @@
         <v>33</v>
       </c>
       <c r="Q8" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S8" s="55"/>
       <c r="T8" s="56"/>
@@ -2061,31 +1978,31 @@
     </row>
     <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
-        <v>27650</v>
+        <v>24160</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F9" s="60">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="64">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" s="61">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I9" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="60"/>
       <c r="K9" s="12"/>
@@ -2097,10 +2014,10 @@
         <v>33</v>
       </c>
       <c r="Q9" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S9" s="55"/>
       <c r="T9" s="56"/>
@@ -2112,56 +2029,46 @@
     </row>
     <row r="10" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
-        <v>24501</v>
+        <v>26921</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F10" s="60">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="G10" s="64">
-        <v>20</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="H10" s="61">
+        <v>27</v>
       </c>
       <c r="I10" s="38">
         <v>4</v>
       </c>
-      <c r="J10" s="60">
-        <v>8070</v>
-      </c>
-      <c r="K10" s="12">
-        <v>10</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="46">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="N10" s="46">
-        <v>0.4861111111111111</v>
-      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
       <c r="O10" s="13"/>
       <c r="P10" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S10" s="55"/>
       <c r="T10" s="56"/>
@@ -2173,31 +2080,31 @@
     </row>
     <row r="11" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
-        <v>24501</v>
+        <v>28585</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F11" s="60">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="G11" s="64">
-        <v>63</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="H11" s="61">
+        <v>59</v>
       </c>
       <c r="I11" s="38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="12"/>
@@ -2206,13 +2113,13 @@
       <c r="N11" s="46"/>
       <c r="O11" s="13"/>
       <c r="P11" s="65" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S11" s="55"/>
       <c r="T11" s="56"/>
@@ -2224,31 +2131,31 @@
     </row>
     <row r="12" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
-        <v>24505</v>
+        <v>44604</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F12" s="60">
-        <v>8000</v>
+        <v>5240</v>
       </c>
       <c r="G12" s="64">
-        <v>20</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="H12" s="61">
+        <v>54</v>
       </c>
       <c r="I12" s="38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12" s="60"/>
       <c r="K12" s="12"/>
@@ -2257,13 +2164,13 @@
       <c r="N12" s="46"/>
       <c r="O12" s="13"/>
       <c r="P12" s="65" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S12" s="55"/>
       <c r="T12" s="56"/>
@@ -2274,59 +2181,47 @@
       <c r="Y12" s="58"/>
     </row>
     <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
-        <v>41744</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="71">
-        <v>4300</v>
-      </c>
-      <c r="G13" s="72">
-        <v>29</v>
-      </c>
-      <c r="H13" s="73">
-        <v>29</v>
-      </c>
-      <c r="I13" s="74">
+      <c r="A13" s="59">
+        <v>44623</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="60">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="64">
+        <v>54</v>
+      </c>
+      <c r="H13" s="61">
+        <v>54</v>
+      </c>
+      <c r="I13" s="38">
         <v>7</v>
       </c>
-      <c r="J13" s="60">
-        <v>4240</v>
-      </c>
-      <c r="K13" s="12">
-        <v>299</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N13" s="46">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="75" t="s">
-        <v>47</v>
+      <c r="J13" s="60"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="65" t="s">
+        <v>52</v>
       </c>
       <c r="Q13" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S13" s="55"/>
       <c r="T13" s="56"/>
@@ -2338,58 +2233,46 @@
     </row>
     <row r="14" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
-        <v>28545</v>
+        <v>28559</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F14" s="60">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="G14" s="64">
-        <v>21.15</v>
+        <v>23.15</v>
       </c>
       <c r="H14" s="61">
-        <v>21.15</v>
+        <v>23.15</v>
       </c>
       <c r="I14" s="38">
         <v>8</v>
       </c>
-      <c r="J14" s="60">
-        <v>5580</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N14" s="46">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="65" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S14" s="55"/>
       <c r="T14" s="56"/>
@@ -2401,28 +2284,28 @@
     </row>
     <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
-        <v>35318</v>
+        <v>28546</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F15" s="60">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="64">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H15" s="61">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I15" s="38">
         <v>8</v>
@@ -2434,13 +2317,13 @@
       <c r="N15" s="46"/>
       <c r="O15" s="13"/>
       <c r="P15" s="65" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S15" s="55"/>
       <c r="T15" s="56"/>
@@ -2451,31 +2334,31 @@
       <c r="Y15" s="58"/>
     </row>
     <row r="16" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="59">
         <v>7822</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="70" t="s">
+      <c r="B16" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="60">
+        <v>12360</v>
+      </c>
+      <c r="G16" s="64">
+        <v>60</v>
+      </c>
+      <c r="H16" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="71">
-        <v>10000</v>
-      </c>
-      <c r="G16" s="72">
-        <v>60</v>
-      </c>
-      <c r="H16" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="74">
+      <c r="I16" s="38">
         <v>9</v>
       </c>
       <c r="J16" s="60"/>
@@ -2484,14 +2367,14 @@
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="75" t="s">
-        <v>55</v>
+      <c r="P16" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q16" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="56"/>
@@ -2502,29 +2385,47 @@
       <c r="Y16" s="58"/>
     </row>
     <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
+      <c r="A17" s="59">
+        <v>7822</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="60">
+        <v>13000</v>
+      </c>
+      <c r="G17" s="64">
+        <v>60</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="38">
+        <v>9</v>
+      </c>
+      <c r="J17" s="60"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="65" t="s">
+        <v>52</v>
+      </c>
       <c r="Q17" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="56"/>
@@ -2535,57 +2436,29 @@
       <c r="Y17" s="58"/>
     </row>
     <row r="18" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59">
-        <v>10734</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="60">
-        <v>8000</v>
-      </c>
-      <c r="G18" s="64">
-        <v>33</v>
-      </c>
-      <c r="H18" s="61">
-        <v>33</v>
-      </c>
-      <c r="I18" s="38">
-        <v>11</v>
-      </c>
-      <c r="J18" s="60">
-        <v>8160</v>
-      </c>
-      <c r="K18" s="12">
-        <v>64</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="65" t="s">
-        <v>33</v>
-      </c>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
       <c r="Q18" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="56"/>
@@ -2597,31 +2470,31 @@
     </row>
     <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
-        <v>10755</v>
+        <v>38192</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F19" s="60">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="64">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H19" s="61">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I19" s="38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="12"/>
@@ -2630,13 +2503,13 @@
       <c r="N19" s="46"/>
       <c r="O19" s="13"/>
       <c r="P19" s="65" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="56"/>
@@ -2648,31 +2521,31 @@
     </row>
     <row r="20" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
-        <v>10753</v>
+        <v>35783</v>
       </c>
       <c r="B20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>74</v>
-      </c>
       <c r="D20" s="36" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F20" s="60">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="G20" s="64">
-        <v>31</v>
-      </c>
-      <c r="H20" s="61">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="I20" s="38">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="12"/>
@@ -2684,10 +2557,10 @@
         <v>33</v>
       </c>
       <c r="Q20" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="56"/>
@@ -2699,58 +2572,46 @@
     </row>
     <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
-        <v>9118</v>
+        <v>28070</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F21" s="60">
-        <v>8000</v>
-      </c>
-      <c r="G21" s="64">
-        <v>38</v>
-      </c>
-      <c r="H21" s="61">
-        <v>38</v>
+        <v>20000</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I21" s="38">
-        <v>13</v>
-      </c>
-      <c r="J21" s="60">
-        <v>8240</v>
-      </c>
-      <c r="K21" s="12">
-        <v>63</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N21" s="46">
-        <v>0.53125</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>189</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J21" s="60"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="65" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S21" s="55"/>
       <c r="T21" s="56"/>
@@ -2762,31 +2623,31 @@
     </row>
     <row r="22" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59">
-        <v>10735</v>
+        <v>36548</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F22" s="60">
-        <v>12000</v>
-      </c>
-      <c r="G22" s="64">
-        <v>36</v>
-      </c>
-      <c r="H22" s="61">
-        <v>36</v>
+        <v>5000</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I22" s="38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J22" s="60"/>
       <c r="K22" s="12"/>
@@ -2795,13 +2656,13 @@
       <c r="N22" s="46"/>
       <c r="O22" s="13"/>
       <c r="P22" s="65" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S22" s="55"/>
       <c r="T22" s="56"/>
@@ -2813,31 +2674,31 @@
     </row>
     <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59">
-        <v>31578</v>
+        <v>36549</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F23" s="60">
-        <v>15050</v>
-      </c>
-      <c r="G23" s="64">
-        <v>40</v>
-      </c>
-      <c r="H23" s="61">
-        <v>40</v>
+        <v>5000</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="I23" s="38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J23" s="60"/>
       <c r="K23" s="12"/>
@@ -2846,13 +2707,13 @@
       <c r="N23" s="46"/>
       <c r="O23" s="13"/>
       <c r="P23" s="65" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S23" s="55"/>
       <c r="T23" s="56"/>
@@ -2864,31 +2725,31 @@
     </row>
     <row r="24" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59">
-        <v>35783</v>
+        <v>36555</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F24" s="60">
-        <v>4000</v>
-      </c>
-      <c r="G24" s="64">
-        <v>56</v>
+        <v>5000</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>24</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I24" s="38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" s="60"/>
       <c r="K24" s="12"/>
@@ -2897,13 +2758,13 @@
       <c r="N24" s="46"/>
       <c r="O24" s="13"/>
       <c r="P24" s="65" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="Q24" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S24" s="55"/>
       <c r="T24" s="56"/>
@@ -2915,22 +2776,22 @@
     </row>
     <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59">
-        <v>28109</v>
+        <v>15338</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F25" s="60">
-        <v>20000</v>
+        <v>8200</v>
       </c>
       <c r="G25" s="64" t="s">
         <v>24</v>
@@ -2947,14 +2808,12 @@
       <c r="M25" s="46"/>
       <c r="N25" s="46"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="65" t="s">
-        <v>42</v>
-      </c>
+      <c r="P25" s="65"/>
       <c r="Q25" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S25" s="55"/>
       <c r="T25" s="56"/>
@@ -2966,22 +2825,22 @@
     </row>
     <row r="26" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59">
-        <v>36699</v>
+        <v>15504</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F26" s="60">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G26" s="64" t="s">
         <v>24</v>
@@ -2998,14 +2857,12 @@
       <c r="M26" s="46"/>
       <c r="N26" s="46"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="P26" s="65"/>
       <c r="Q26" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S26" s="55"/>
       <c r="T26" s="56"/>
@@ -3017,22 +2874,22 @@
     </row>
     <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59">
-        <v>36714</v>
+        <v>15514</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F27" s="60">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G27" s="64" t="s">
         <v>24</v>
@@ -3049,14 +2906,12 @@
       <c r="M27" s="46"/>
       <c r="N27" s="46"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="P27" s="65"/>
       <c r="Q27" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S27" s="55"/>
       <c r="T27" s="56"/>
@@ -3068,22 +2923,22 @@
     </row>
     <row r="28" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59">
-        <v>36756</v>
+        <v>15518</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F28" s="60">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G28" s="64" t="s">
         <v>24</v>
@@ -3100,14 +2955,12 @@
       <c r="M28" s="46"/>
       <c r="N28" s="46"/>
       <c r="O28" s="13"/>
-      <c r="P28" s="65" t="s">
-        <v>49</v>
-      </c>
+      <c r="P28" s="65"/>
       <c r="Q28" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S28" s="55"/>
       <c r="T28" s="56"/>
@@ -3119,19 +2972,19 @@
     </row>
     <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59">
-        <v>24158</v>
+        <v>15519</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F29" s="60">
         <v>8000</v>
@@ -3153,10 +3006,10 @@
       <c r="O29" s="13"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S29" s="55"/>
       <c r="T29" s="56"/>
@@ -3168,22 +3021,22 @@
     </row>
     <row r="30" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59">
-        <v>15499</v>
+        <v>24219</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F30" s="60">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="G30" s="64" t="s">
         <v>24</v>
@@ -3202,10 +3055,10 @@
       <c r="O30" s="13"/>
       <c r="P30" s="65"/>
       <c r="Q30" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S30" s="55"/>
       <c r="T30" s="56"/>
@@ -3217,22 +3070,22 @@
     </row>
     <row r="31" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59">
-        <v>15505</v>
+        <v>15376</v>
       </c>
       <c r="B31" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="59" t="s">
-        <v>143</v>
-      </c>
       <c r="D31" s="36" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F31" s="60">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="G31" s="64" t="s">
         <v>24</v>
@@ -3249,12 +3102,14 @@
       <c r="M31" s="46"/>
       <c r="N31" s="46"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="65"/>
+      <c r="P31" s="65" t="s">
+        <v>42</v>
+      </c>
       <c r="Q31" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S31" s="55"/>
       <c r="T31" s="56"/>
@@ -3266,22 +3121,22 @@
     </row>
     <row r="32" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59">
-        <v>15507</v>
+        <v>15397</v>
       </c>
       <c r="B32" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>143</v>
-      </c>
       <c r="D32" s="36" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F32" s="60">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G32" s="64" t="s">
         <v>24</v>
@@ -3299,13 +3154,13 @@
       <c r="N32" s="46"/>
       <c r="O32" s="13"/>
       <c r="P32" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S32" s="55"/>
       <c r="T32" s="56"/>
@@ -3317,22 +3172,22 @@
     </row>
     <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59">
-        <v>15515</v>
+        <v>15421</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="D33" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>153</v>
-      </c>
       <c r="F33" s="60">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="64" t="s">
         <v>24</v>
@@ -3349,12 +3204,14 @@
       <c r="M33" s="46"/>
       <c r="N33" s="46"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="65"/>
+      <c r="P33" s="65" t="s">
+        <v>42</v>
+      </c>
       <c r="Q33" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S33" s="55"/>
       <c r="T33" s="56"/>
@@ -3366,19 +3223,19 @@
     </row>
     <row r="34" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59">
-        <v>15517</v>
+        <v>15426</v>
       </c>
       <c r="B34" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>143</v>
-      </c>
       <c r="D34" s="36" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F34" s="60">
         <v>4000</v>
@@ -3399,13 +3256,13 @@
       <c r="N34" s="46"/>
       <c r="O34" s="13"/>
       <c r="P34" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S34" s="55"/>
       <c r="T34" s="56"/>
@@ -3417,22 +3274,22 @@
     </row>
     <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59">
-        <v>24179</v>
+        <v>15461</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="59" t="s">
-        <v>143</v>
-      </c>
       <c r="D35" s="36" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F35" s="60">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="64" t="s">
         <v>24</v>
@@ -3449,12 +3306,14 @@
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="65"/>
+      <c r="P35" s="65" t="s">
+        <v>42</v>
+      </c>
       <c r="Q35" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S35" s="55"/>
       <c r="T35" s="56"/>
@@ -3466,22 +3325,22 @@
     </row>
     <row r="36" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59">
-        <v>15529</v>
+        <v>15557</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F36" s="60">
-        <v>24000</v>
+        <v>900</v>
       </c>
       <c r="G36" s="64" t="s">
         <v>24</v>
@@ -3498,14 +3357,12 @@
       <c r="M36" s="46"/>
       <c r="N36" s="46"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="65" t="s">
-        <v>43</v>
-      </c>
+      <c r="P36" s="65"/>
       <c r="Q36" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S36" s="55"/>
       <c r="T36" s="56"/>
@@ -3517,22 +3374,22 @@
     </row>
     <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59">
-        <v>15532</v>
+        <v>30787</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F37" s="60">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="64" t="s">
         <v>24</v>
@@ -3549,14 +3406,12 @@
       <c r="M37" s="46"/>
       <c r="N37" s="46"/>
       <c r="O37" s="13"/>
-      <c r="P37" s="65" t="s">
-        <v>43</v>
-      </c>
+      <c r="P37" s="65"/>
       <c r="Q37" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S37" s="55"/>
       <c r="T37" s="56"/>
@@ -3568,22 +3423,22 @@
     </row>
     <row r="38" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59">
-        <v>24223</v>
+        <v>30801</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F38" s="60">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G38" s="64" t="s">
         <v>24</v>
@@ -3600,14 +3455,12 @@
       <c r="M38" s="46"/>
       <c r="N38" s="46"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="65" t="s">
-        <v>43</v>
-      </c>
+      <c r="P38" s="65"/>
       <c r="Q38" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S38" s="55"/>
       <c r="T38" s="56"/>
@@ -3619,22 +3472,22 @@
     </row>
     <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59">
-        <v>38233</v>
+        <v>30803</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F39" s="60">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="G39" s="64" t="s">
         <v>24</v>
@@ -3653,10 +3506,10 @@
       <c r="O39" s="13"/>
       <c r="P39" s="65"/>
       <c r="Q39" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S39" s="55"/>
       <c r="T39" s="56"/>
@@ -3667,53 +3520,45 @@
       <c r="Y39" s="58"/>
     </row>
     <row r="40" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
-        <v>44629</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="71">
-        <v>1250</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="74">
-        <v>18</v>
-      </c>
-      <c r="J40" s="60">
-        <v>1190</v>
-      </c>
+      <c r="A40" s="59">
+        <v>30819</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="60">
+        <v>2000</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="38">
+        <v>16</v>
+      </c>
+      <c r="J40" s="60"/>
       <c r="K40" s="12"/>
       <c r="L40" s="33"/>
-      <c r="M40" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N40" s="46">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="P40" s="75"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="65"/>
       <c r="Q40" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S40" s="55"/>
       <c r="T40" s="56"/>
@@ -3724,28 +3569,32 @@
       <c r="Y40" s="58"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="67">
-        <v>44604</v>
-      </c>
-      <c r="D41" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="74">
-        <v>18</v>
+      <c r="A41" s="59">
+        <v>38236</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="60">
+        <v>13000</v>
+      </c>
+      <c r="G41" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="38">
+        <v>16</v>
       </c>
       <c r="J41" s="60"/>
       <c r="K41" s="12"/>
@@ -3753,14 +3602,12 @@
       <c r="M41" s="46"/>
       <c r="N41" s="46"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="75" t="s">
-        <v>90</v>
-      </c>
+      <c r="P41" s="65"/>
       <c r="Q41" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S41" s="55"/>
       <c r="T41" s="56"/>
@@ -3771,19 +3618,23 @@
       <c r="Y41" s="58"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="67">
-        <v>44603</v>
+      <c r="A42" s="67">
+        <v>25044</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="71" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="F42" s="71">
+        <v>8070</v>
       </c>
       <c r="G42" s="72" t="s">
         <v>24</v>
@@ -3800,12 +3651,14 @@
       <c r="M42" s="46"/>
       <c r="N42" s="46"/>
       <c r="O42" s="13"/>
-      <c r="P42" s="75"/>
+      <c r="P42" s="75" t="s">
+        <v>83</v>
+      </c>
       <c r="Q42" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S42" s="55"/>
       <c r="T42" s="56"/>
@@ -3816,19 +3669,23 @@
       <c r="Y42" s="58"/>
     </row>
     <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="67">
-        <v>44602</v>
+      <c r="A43" s="67">
+        <v>25044</v>
+      </c>
+      <c r="B43" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>59</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="71" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="F43" s="71">
+        <v>8060</v>
       </c>
       <c r="G43" s="72" t="s">
         <v>24</v>
@@ -3845,12 +3702,14 @@
       <c r="M43" s="46"/>
       <c r="N43" s="46"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="75"/>
+      <c r="P43" s="75" t="s">
+        <v>83</v>
+      </c>
       <c r="Q43" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S43" s="55"/>
       <c r="T43" s="56"/>
@@ -3861,55 +3720,29 @@
       <c r="Y43" s="58"/>
     </row>
     <row r="44" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67">
-        <v>25041</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="71">
-        <v>7650</v>
-      </c>
-      <c r="G44" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="74">
-        <v>18</v>
-      </c>
-      <c r="J44" s="60">
-        <v>7650</v>
-      </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="46">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="N44" s="46">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="P44" s="75" t="s">
-        <v>171</v>
-      </c>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
       <c r="Q44" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S44" s="55"/>
       <c r="T44" s="56"/>
@@ -3920,47 +3753,59 @@
       <c r="Y44" s="58"/>
     </row>
     <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67">
-        <v>25041</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="71">
-        <v>7520</v>
-      </c>
-      <c r="G45" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="74">
-        <v>18</v>
-      </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="75" t="s">
-        <v>171</v>
+      <c r="A45" s="59">
+        <v>6101</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="60">
+        <v>4000</v>
+      </c>
+      <c r="G45" s="64">
+        <v>7</v>
+      </c>
+      <c r="H45" s="61">
+        <v>7</v>
+      </c>
+      <c r="I45" s="38">
+        <v>21</v>
+      </c>
+      <c r="J45" s="60">
+        <v>4120</v>
+      </c>
+      <c r="K45" s="12">
+        <v>64</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N45" s="46">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="Q45" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S45" s="55"/>
       <c r="T45" s="56"/>
@@ -3971,29 +3816,59 @@
       <c r="Y45" s="58"/>
     </row>
     <row r="46" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48" t="s">
+      <c r="A46" s="59">
+        <v>24206</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="60">
+        <v>4000</v>
+      </c>
+      <c r="G46" s="64">
         <v>13</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
+      <c r="H46" s="61">
+        <v>13</v>
+      </c>
+      <c r="I46" s="38">
+        <v>21</v>
+      </c>
+      <c r="J46" s="60">
+        <v>4100</v>
+      </c>
+      <c r="K46" s="12">
+        <v>64</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="46">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="N46" s="46">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="Q46" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S46" s="55"/>
       <c r="T46" s="56"/>
@@ -4005,56 +3880,46 @@
     </row>
     <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="59">
-        <v>10827</v>
+        <v>6094</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F47" s="60">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G47" s="64">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H47" s="61">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I47" s="38">
         <v>21</v>
       </c>
-      <c r="J47" s="60">
-        <v>20040</v>
-      </c>
-      <c r="K47" s="12">
-        <v>64</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N47" s="46">
-        <v>0.52777777777777779</v>
-      </c>
+      <c r="J47" s="60"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
       <c r="O47" s="13"/>
       <c r="P47" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q47" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S47" s="55"/>
       <c r="T47" s="56"/>
@@ -4066,28 +3931,28 @@
     </row>
     <row r="48" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="59">
-        <v>10823</v>
+        <v>13715</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F48" s="60">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="G48" s="64">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H48" s="61">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="I48" s="38">
         <v>21</v>
@@ -4102,10 +3967,10 @@
         <v>33</v>
       </c>
       <c r="Q48" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S48" s="55"/>
       <c r="T48" s="56"/>
@@ -4117,28 +3982,28 @@
     </row>
     <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="59">
-        <v>10804</v>
+        <v>6103</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F49" s="60">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="G49" s="64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49" s="61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I49" s="38">
         <v>21</v>
@@ -4153,10 +4018,10 @@
         <v>33</v>
       </c>
       <c r="Q49" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S49" s="55"/>
       <c r="T49" s="56"/>
@@ -4168,56 +4033,46 @@
     </row>
     <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="59">
-        <v>27633</v>
+        <v>27638</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F50" s="60">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="64">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H50" s="61">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I50" s="38">
         <v>23</v>
       </c>
-      <c r="J50" s="60">
-        <v>11960</v>
-      </c>
-      <c r="K50" s="12">
-        <v>64</v>
-      </c>
-      <c r="L50" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N50" s="46">
-        <v>0.46180555555555558</v>
-      </c>
+      <c r="J50" s="60"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
       <c r="O50" s="13"/>
       <c r="P50" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q50" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S50" s="55"/>
       <c r="T50" s="56"/>
@@ -4229,31 +4084,31 @@
     </row>
     <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="59">
-        <v>27715</v>
+        <v>37063</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F51" s="60">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="G51" s="64">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H51" s="61">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I51" s="38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J51" s="60"/>
       <c r="K51" s="12"/>
@@ -4265,10 +4120,10 @@
         <v>33</v>
       </c>
       <c r="Q51" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S51" s="55"/>
       <c r="T51" s="56"/>
@@ -4280,56 +4135,46 @@
     </row>
     <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="59">
-        <v>37021</v>
+        <v>37020</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F52" s="60">
         <v>5000</v>
       </c>
       <c r="G52" s="64">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H52" s="61">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I52" s="38">
         <v>24</v>
       </c>
-      <c r="J52" s="60">
-        <v>5120</v>
-      </c>
-      <c r="K52" s="12">
-        <v>102</v>
-      </c>
-      <c r="L52" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M52" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N52" s="46">
-        <v>0.37847222222222227</v>
-      </c>
+      <c r="J52" s="60"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
       <c r="O52" s="13"/>
       <c r="P52" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q52" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S52" s="55"/>
       <c r="T52" s="56"/>
@@ -4341,56 +4186,46 @@
     </row>
     <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="59">
-        <v>37064</v>
+        <v>37035</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F53" s="60">
         <v>5000</v>
       </c>
       <c r="G53" s="64">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H53" s="61">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I53" s="38">
         <v>24</v>
       </c>
-      <c r="J53" s="60">
-        <v>5000</v>
-      </c>
-      <c r="K53" s="12">
-        <v>103</v>
-      </c>
-      <c r="L53" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M53" s="46">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N53" s="46">
-        <v>0.44791666666666669</v>
-      </c>
+      <c r="J53" s="60"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
       <c r="O53" s="13"/>
       <c r="P53" s="65" t="s">
         <v>33</v>
       </c>
       <c r="Q53" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S53" s="55"/>
       <c r="T53" s="56"/>
@@ -4400,58 +4235,48 @@
       <c r="X53" s="57"/>
       <c r="Y53" s="58"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="59">
-        <v>37006</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="60">
+    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="67">
+        <v>5653</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="71">
         <v>5000</v>
       </c>
-      <c r="G54" s="64">
-        <v>13</v>
-      </c>
-      <c r="H54" s="61">
-        <v>13</v>
-      </c>
-      <c r="I54" s="38">
-        <v>24</v>
-      </c>
-      <c r="J54" s="60">
-        <v>5040</v>
-      </c>
-      <c r="K54" s="12">
-        <v>103</v>
-      </c>
-      <c r="L54" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="46">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="N54" s="46">
-        <v>0.51388888888888895</v>
-      </c>
+      <c r="G54" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="74">
+        <v>42</v>
+      </c>
+      <c r="J54" s="60"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
       <c r="O54" s="13"/>
-      <c r="P54" s="65" t="s">
-        <v>181</v>
+      <c r="P54" s="75" t="s">
+        <v>52</v>
       </c>
       <c r="Q54" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S54" s="55"/>
       <c r="T54" s="56"/>
@@ -4462,57 +4287,41 @@
       <c r="Y54" s="58"/>
     </row>
     <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59">
-        <v>37001</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G55" s="64">
-        <v>17</v>
-      </c>
-      <c r="H55" s="61">
-        <v>17</v>
-      </c>
-      <c r="I55" s="38">
-        <v>24</v>
-      </c>
-      <c r="J55" s="60">
-        <v>5080</v>
-      </c>
-      <c r="K55" s="12">
-        <v>103</v>
-      </c>
-      <c r="L55" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" s="46">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="N55" s="46">
-        <v>0.58333333333333337</v>
-      </c>
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="67">
+        <v>7838</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="74">
+        <v>42</v>
+      </c>
+      <c r="J55" s="60"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
       <c r="O55" s="13"/>
-      <c r="P55" s="65" t="s">
-        <v>33</v>
-      </c>
+      <c r="P55" s="75"/>
       <c r="Q55" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S55" s="55"/>
       <c r="T55" s="56"/>
@@ -4522,33 +4331,29 @@
       <c r="X55" s="57"/>
       <c r="Y55" s="58"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="59">
-        <v>37009</v>
-      </c>
-      <c r="B56" s="35" t="s">
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="67">
+        <v>7825</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G56" s="64">
-        <v>19</v>
-      </c>
-      <c r="H56" s="61">
-        <v>19</v>
-      </c>
-      <c r="I56" s="38">
-        <v>24</v>
+      <c r="F56" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="74">
+        <v>42</v>
       </c>
       <c r="J56" s="60"/>
       <c r="K56" s="12"/>
@@ -4556,14 +4361,12 @@
       <c r="M56" s="46"/>
       <c r="N56" s="46"/>
       <c r="O56" s="13"/>
-      <c r="P56" s="65" t="s">
-        <v>184</v>
-      </c>
+      <c r="P56" s="75"/>
       <c r="Q56" s="6">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S56" s="55"/>
       <c r="T56" s="56"/>
@@ -4574,48 +4377,24 @@
       <c r="Y56" s="58"/>
     </row>
     <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59">
-        <v>37037</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G57" s="64">
-        <v>25</v>
-      </c>
-      <c r="H57" s="61">
-        <v>25</v>
-      </c>
-      <c r="I57" s="38">
-        <v>24</v>
-      </c>
+      <c r="A57" s="59"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="38"/>
       <c r="J57" s="60"/>
       <c r="K57" s="12"/>
       <c r="L57" s="33"/>
       <c r="M57" s="46"/>
       <c r="N57" s="46"/>
       <c r="O57" s="13"/>
-      <c r="P57" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>43897</v>
-      </c>
-      <c r="R57" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="7"/>
       <c r="S57" s="55"/>
       <c r="T57" s="56"/>
       <c r="U57" s="57"/>
@@ -4624,263 +4403,89 @@
       <c r="X57" s="57"/>
       <c r="Y57" s="58"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67">
-        <v>5653</v>
-      </c>
-      <c r="B58" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="71">
-        <v>6000</v>
-      </c>
-      <c r="G58" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="74">
-        <v>42</v>
-      </c>
-      <c r="J58" s="60"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>43897</v>
-      </c>
-      <c r="R58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S58" s="55"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="58"/>
-    </row>
-    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="67">
-        <v>7838</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="74">
-        <v>42</v>
-      </c>
-      <c r="J59" s="60"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="6">
-        <v>43897</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S59" s="55"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="58"/>
-    </row>
-    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="67">
-        <v>7825</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I60" s="74">
-        <v>42</v>
-      </c>
-      <c r="J60" s="60"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="6">
-        <v>43897</v>
-      </c>
-      <c r="R60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="58"/>
-    </row>
-    <row r="61" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="58"/>
-    </row>
-    <row r="62" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="30" t="s">
+    <row r="58" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="31"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="30" t="s">
+      <c r="I58" s="31"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="7"/>
-    </row>
-    <row r="63" spans="1:25" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="17" t="s">
+      <c r="P58" s="6"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="1:25" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="10">
-        <v>40</v>
-      </c>
-      <c r="K63" s="17" t="s">
+      <c r="I59" s="18"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="19">
-        <v>40</v>
-      </c>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="7"/>
-    </row>
-    <row r="64" spans="1:25" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="17" t="s">
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="1:25" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="K64" s="17" t="s">
+      <c r="I60" s="18"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="7"/>
-    </row>
-    <row r="65" spans="11:13" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="1:25" s="62" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z2yVTd1N3LLW4G7tAIx3RIXLbJb1r0dD3iu7AhrwWNIA+aGDvuV6LIMVS7A49RZQmAlFPhMWw9NqmviLV/nEAA==" saltValue="pghfh5ztVssd6Qzq2itfyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="s/7iBHAWfOcKZHGkMmfhxLSEZ3AyN7RN2iOWAO0RK0JuIP8ubIW+DuxLszKaRqSptKGeAmj+W3q4F5v7xwDKWg==" saltValue="zg98sQc14XqQN+KxgSD5OQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="R1:R1048576" name="Диапазон2"/>
     <protectedRange sqref="J1:O1048576" name="Диапазон1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="A65:X65">
+  <conditionalFormatting sqref="A61:X61">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
